--- a/7/kasa=1.3/7_kasa=1.3_SS.xlsx
+++ b/7/kasa=1.3/7_kasa=1.3_SS.xlsx
@@ -8,11 +8,11 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="まとめ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa2.3_th1.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa2.3_th1.41" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa2.3_th1.58" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa2.3_th1.73" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa2.3_th2.0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa1.3_th1.0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa1.3_th1.41" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa1.3_th1.58" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa1.3_th1.73" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_kasa1.3_th2.0" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -153,7 +153,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>7_kasa2.3_th1.0</a:t>
+              <a:t>7_kasa1.3_th1.0</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -179,12 +179,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th1.0'!$C$2:$C$105</f>
+              <f>'7_kasa1.3_th1.0'!$C$2:$C$101</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th1.0'!$D$2:$D$105</f>
+              <f>'7_kasa1.3_th1.0'!$D$2:$D$101</f>
             </numRef>
           </yVal>
         </ser>
@@ -291,12 +291,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th2.0'!$C$2:$C$10</f>
+              <f>'7_kasa1.3_th2.0'!$C$2:$C$9</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th2.0'!$D$2:$D$10</f>
+              <f>'7_kasa1.3_th2.0'!$D$2:$D$9</f>
             </numRef>
           </yVal>
         </ser>
@@ -403,12 +403,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th1.0'!$C$2:$C$10</f>
+              <f>'7_kasa1.3_th1.0'!$C$2:$C$9</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th1.0'!$D$2:$D$10</f>
+              <f>'7_kasa1.3_th1.0'!$D$2:$D$9</f>
             </numRef>
           </yVal>
         </ser>
@@ -489,7 +489,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>7_kasa2.3_th1.41</a:t>
+              <a:t>7_kasa1.3_th1.41</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -515,12 +515,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th1.41'!$C$2:$C$105</f>
+              <f>'7_kasa1.3_th1.41'!$C$2:$C$103</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th1.41'!$D$2:$D$105</f>
+              <f>'7_kasa1.3_th1.41'!$D$2:$D$103</f>
             </numRef>
           </yVal>
         </ser>
@@ -627,12 +627,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th1.41'!$C$2:$C$10</f>
+              <f>'7_kasa1.3_th1.41'!$C$2:$C$10</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th1.41'!$D$2:$D$10</f>
+              <f>'7_kasa1.3_th1.41'!$D$2:$D$10</f>
             </numRef>
           </yVal>
         </ser>
@@ -713,7 +713,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>7_kasa2.3_th1.58</a:t>
+              <a:t>7_kasa1.3_th1.58</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -739,12 +739,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th1.58'!$C$2:$C$105</f>
+              <f>'7_kasa1.3_th1.58'!$C$2:$C$105</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th1.58'!$D$2:$D$105</f>
+              <f>'7_kasa1.3_th1.58'!$D$2:$D$105</f>
             </numRef>
           </yVal>
         </ser>
@@ -851,12 +851,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th1.58'!$C$2:$C$10</f>
+              <f>'7_kasa1.3_th1.58'!$C$2:$C$10</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th1.58'!$D$2:$D$10</f>
+              <f>'7_kasa1.3_th1.58'!$D$2:$D$10</f>
             </numRef>
           </yVal>
         </ser>
@@ -937,7 +937,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>7_kasa2.3_th1.73</a:t>
+              <a:t>7_kasa1.3_th1.73</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -963,12 +963,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th1.73'!$C$2:$C$105</f>
+              <f>'7_kasa1.3_th1.73'!$C$2:$C$105</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th1.73'!$D$2:$D$105</f>
+              <f>'7_kasa1.3_th1.73'!$D$2:$D$105</f>
             </numRef>
           </yVal>
         </ser>
@@ -1075,12 +1075,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th1.73'!$C$2:$C$10</f>
+              <f>'7_kasa1.3_th1.73'!$C$2:$C$10</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th1.73'!$D$2:$D$10</f>
+              <f>'7_kasa1.3_th1.73'!$D$2:$D$10</f>
             </numRef>
           </yVal>
         </ser>
@@ -1161,7 +1161,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>7_kasa2.3_th2.0</a:t>
+              <a:t>7_kasa1.3_th2.0</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1187,12 +1187,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'7_kasa2.3_th2.0'!$C$2:$C$105</f>
+              <f>'7_kasa1.3_th2.0'!$C$2:$C$101</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'7_kasa2.3_th2.0'!$D$2:$D$105</f>
+              <f>'7_kasa1.3_th2.0'!$D$2:$D$101</f>
             </numRef>
           </yVal>
         </ser>
@@ -1841,33 +1841,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7_kasa2.3_th1.0</t>
+          <t>7_kasa1.3_th1.0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.32128571428571</v>
+        <v>32.98242857142857</v>
       </c>
       <c r="C2" t="n">
-        <v>3057.498181818181</v>
+        <v>2333.784476190477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7_kasa2.3_th1.41</t>
+          <t>7_kasa1.3_th1.41</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.32128571428571</v>
+        <v>36.95385714285715</v>
       </c>
       <c r="C3" t="n">
-        <v>3057.498181818181</v>
+        <v>2846.360415584415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7_kasa2.3_th1.58</t>
+          <t>7_kasa1.3_th1.58</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1880,27 +1880,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7_kasa2.3_th1.73</t>
+          <t>7_kasa1.3_th1.73</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.32128571428571</v>
+        <v>37.52528571428572</v>
       </c>
       <c r="C5" t="n">
-        <v>3057.498181818181</v>
+        <v>3239.156813852814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7_kasa2.3_th2.0</t>
+          <t>7_kasa1.3_th2.0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.32128571428571</v>
+        <v>37.16171428571429</v>
       </c>
       <c r="C6" t="n">
-        <v>3057.498181818181</v>
+        <v>3547.873523809523</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>7\kasa=1.3\thickness=1.0\7_kasa2.3_th1.0.csv</t>
+          <t>7\kasa=1.3\thickness=1.0\7_kasa1.3_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -1954,13 +1954,13 @@
         <v>0.02</v>
       </c>
       <c r="B2" t="n">
-        <v>53.51</v>
+        <v>40.8412</v>
       </c>
       <c r="C2" t="n">
         <v>0.00025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7644285714285713</v>
+        <v>0.5834457142857143</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36.32128571428571</v>
+        <v>32.98242857142857</v>
       </c>
     </row>
     <row r="3">
@@ -1976,13 +1976,13 @@
         <v>0.04</v>
       </c>
       <c r="B3" t="n">
-        <v>107.02</v>
+        <v>81.6825</v>
       </c>
       <c r="C3" t="n">
         <v>0.0005</v>
       </c>
       <c r="D3" t="n">
-        <v>1.528857142857143</v>
+        <v>1.166892857142857</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3057.498181818181</v>
+        <v>2333.784476190477</v>
       </c>
     </row>
     <row r="4">
@@ -1998,13 +1998,13 @@
         <v>0.06</v>
       </c>
       <c r="B4" t="n">
-        <v>160.53</v>
+        <v>122.524</v>
       </c>
       <c r="C4" t="n">
         <v>0.00075</v>
       </c>
       <c r="D4" t="n">
-        <v>2.293285714285714</v>
+        <v>1.750342857142857</v>
       </c>
     </row>
     <row r="5">
@@ -2012,13 +2012,13 @@
         <v>0.08</v>
       </c>
       <c r="B5" t="n">
-        <v>214.04</v>
+        <v>163.365</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
       </c>
       <c r="D5" t="n">
-        <v>3.057714285714285</v>
+        <v>2.333785714285714</v>
       </c>
     </row>
     <row r="6">
@@ -2026,13 +2026,13 @@
         <v>0.1</v>
       </c>
       <c r="B6" t="n">
-        <v>267.55</v>
+        <v>204.206</v>
       </c>
       <c r="C6" t="n">
         <v>0.00125</v>
       </c>
       <c r="D6" t="n">
-        <v>3.822142857142858</v>
+        <v>2.917228571428571</v>
       </c>
     </row>
     <row r="7">
@@ -2040,13 +2040,13 @@
         <v>0.12</v>
       </c>
       <c r="B7" t="n">
-        <v>321.06</v>
+        <v>245.047</v>
       </c>
       <c r="C7" t="n">
         <v>0.0015</v>
       </c>
       <c r="D7" t="n">
-        <v>4.586571428571428</v>
+        <v>3.500671428571429</v>
       </c>
     </row>
     <row r="8">
@@ -2054,13 +2054,13 @@
         <v>0.14</v>
       </c>
       <c r="B8" t="n">
-        <v>374.57</v>
+        <v>285.889</v>
       </c>
       <c r="C8" t="n">
         <v>0.00175</v>
       </c>
       <c r="D8" t="n">
-        <v>5.351</v>
+        <v>4.084128571428572</v>
       </c>
     </row>
     <row r="9">
@@ -2068,13 +2068,13 @@
         <v>0.16</v>
       </c>
       <c r="B9" t="n">
-        <v>428.077</v>
+        <v>326.73</v>
       </c>
       <c r="C9" t="n">
         <v>0.002</v>
       </c>
       <c r="D9" t="n">
-        <v>6.115385714285714</v>
+        <v>4.667571428571429</v>
       </c>
     </row>
     <row r="10">
@@ -2082,13 +2082,13 @@
         <v>0.18</v>
       </c>
       <c r="B10" t="n">
-        <v>481.575</v>
+        <v>367.571</v>
       </c>
       <c r="C10" t="n">
         <v>0.00225</v>
       </c>
       <c r="D10" t="n">
-        <v>6.879642857142857</v>
+        <v>5.251014285714287</v>
       </c>
     </row>
     <row r="11">
@@ -2096,13 +2096,13 @@
         <v>0.2</v>
       </c>
       <c r="B11" t="n">
-        <v>535.044</v>
+        <v>408.412</v>
       </c>
       <c r="C11" t="n">
         <v>0.0025</v>
       </c>
       <c r="D11" t="n">
-        <v>7.643485714285714</v>
+        <v>5.834457142857143</v>
       </c>
     </row>
     <row r="12">
@@ -2110,13 +2110,13 @@
         <v>0.22</v>
       </c>
       <c r="B12" t="n">
-        <v>588.442</v>
+        <v>449.254</v>
       </c>
       <c r="C12" t="n">
         <v>0.00275</v>
       </c>
       <c r="D12" t="n">
-        <v>8.406314285714286</v>
+        <v>6.417914285714286</v>
       </c>
     </row>
     <row r="13">
@@ -2124,13 +2124,13 @@
         <v>0.24</v>
       </c>
       <c r="B13" t="n">
-        <v>641.847</v>
+        <v>490.091</v>
       </c>
       <c r="C13" t="n">
         <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>9.169242857142857</v>
+        <v>7.001300000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2138,13 +2138,13 @@
         <v>0.26</v>
       </c>
       <c r="B14" t="n">
-        <v>695.087</v>
+        <v>530.92</v>
       </c>
       <c r="C14" t="n">
         <v>0.00325</v>
       </c>
       <c r="D14" t="n">
-        <v>9.929814285714286</v>
+        <v>7.584571428571428</v>
       </c>
     </row>
     <row r="15">
@@ -2152,13 +2152,13 @@
         <v>0.28</v>
       </c>
       <c r="B15" t="n">
-        <v>748.194</v>
+        <v>571.724</v>
       </c>
       <c r="C15" t="n">
         <v>0.003500000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>10.68848571428571</v>
+        <v>8.167485714285714</v>
       </c>
     </row>
     <row r="16">
@@ -2166,13 +2166,13 @@
         <v>0.3</v>
       </c>
       <c r="B16" t="n">
-        <v>801.474</v>
+        <v>612.5</v>
       </c>
       <c r="C16" t="n">
         <v>0.003749999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>11.44962857142857</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="17">
@@ -2180,13 +2180,13 @@
         <v>0.32</v>
       </c>
       <c r="B17" t="n">
-        <v>854.8</v>
+        <v>653.1900000000001</v>
       </c>
       <c r="C17" t="n">
         <v>0.004</v>
       </c>
       <c r="D17" t="n">
-        <v>12.21142857142857</v>
+        <v>9.331285714285714</v>
       </c>
     </row>
     <row r="18">
@@ -2194,13 +2194,13 @@
         <v>0.34</v>
       </c>
       <c r="B18" t="n">
-        <v>908.032</v>
+        <v>693.924</v>
       </c>
       <c r="C18" t="n">
         <v>0.00425</v>
       </c>
       <c r="D18" t="n">
-        <v>12.97188571428572</v>
+        <v>9.9132</v>
       </c>
     </row>
     <row r="19">
@@ -2208,13 +2208,13 @@
         <v>0.36</v>
       </c>
       <c r="B19" t="n">
-        <v>961.289</v>
+        <v>734.65</v>
       </c>
       <c r="C19" t="n">
         <v>0.0045</v>
       </c>
       <c r="D19" t="n">
-        <v>13.7327</v>
+        <v>10.495</v>
       </c>
     </row>
     <row r="20">
@@ -2222,13 +2222,13 @@
         <v>0.38</v>
       </c>
       <c r="B20" t="n">
-        <v>1014.48</v>
+        <v>775.41</v>
       </c>
       <c r="C20" t="n">
         <v>0.00475</v>
       </c>
       <c r="D20" t="n">
-        <v>14.49257142857143</v>
+        <v>11.07728571428571</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         <v>0.4</v>
       </c>
       <c r="B21" t="n">
-        <v>1067.69</v>
+        <v>816.173</v>
       </c>
       <c r="C21" t="n">
         <v>0.005</v>
       </c>
       <c r="D21" t="n">
-        <v>15.25271428571429</v>
+        <v>11.65961428571429</v>
       </c>
     </row>
     <row r="22">
@@ -2250,13 +2250,13 @@
         <v>0.42</v>
       </c>
       <c r="B22" t="n">
-        <v>1120.81</v>
+        <v>856.956</v>
       </c>
       <c r="C22" t="n">
         <v>0.00525</v>
       </c>
       <c r="D22" t="n">
-        <v>16.01157142857143</v>
+        <v>12.24222857142857</v>
       </c>
     </row>
     <row r="23">
@@ -2264,13 +2264,13 @@
         <v>0.44</v>
       </c>
       <c r="B23" t="n">
-        <v>1174.06</v>
+        <v>897.745</v>
       </c>
       <c r="C23" t="n">
         <v>0.0055</v>
       </c>
       <c r="D23" t="n">
-        <v>16.77228571428572</v>
+        <v>12.82492857142857</v>
       </c>
     </row>
     <row r="24">
@@ -2278,13 +2278,13 @@
         <v>0.46</v>
       </c>
       <c r="B24" t="n">
-        <v>1227.18</v>
+        <v>938.54</v>
       </c>
       <c r="C24" t="n">
         <v>0.00575</v>
       </c>
       <c r="D24" t="n">
-        <v>17.53114285714286</v>
+        <v>13.40771428571428</v>
       </c>
     </row>
     <row r="25">
@@ -2292,13 +2292,13 @@
         <v>0.48</v>
       </c>
       <c r="B25" t="n">
-        <v>1280.39</v>
+        <v>979.336</v>
       </c>
       <c r="C25" t="n">
         <v>0.006</v>
       </c>
       <c r="D25" t="n">
-        <v>18.29128571428572</v>
+        <v>13.99051428571429</v>
       </c>
     </row>
     <row r="26">
@@ -2306,13 +2306,13 @@
         <v>0.5</v>
       </c>
       <c r="B26" t="n">
-        <v>1333.61</v>
+        <v>1020.11</v>
       </c>
       <c r="C26" t="n">
         <v>0.00625</v>
       </c>
       <c r="D26" t="n">
-        <v>19.05157142857143</v>
+        <v>14.573</v>
       </c>
     </row>
     <row r="27">
@@ -2320,13 +2320,13 @@
         <v>0.52</v>
       </c>
       <c r="B27" t="n">
-        <v>1386.79</v>
+        <v>1060.84</v>
       </c>
       <c r="C27" t="n">
         <v>0.006500000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>19.81128571428571</v>
+        <v>15.15485714285714</v>
       </c>
     </row>
     <row r="28">
@@ -2334,13 +2334,13 @@
         <v>0.54</v>
       </c>
       <c r="B28" t="n">
-        <v>1440.01</v>
+        <v>1101.59</v>
       </c>
       <c r="C28" t="n">
         <v>0.00675</v>
       </c>
       <c r="D28" t="n">
-        <v>20.57157142857143</v>
+        <v>15.737</v>
       </c>
     </row>
     <row r="29">
@@ -2348,13 +2348,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>1493.11</v>
+        <v>1142.35</v>
       </c>
       <c r="C29" t="n">
         <v>0.007000000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>21.33014285714286</v>
+        <v>16.31928571428571</v>
       </c>
     </row>
     <row r="30">
@@ -2362,13 +2362,13 @@
         <v>0.58</v>
       </c>
       <c r="B30" t="n">
-        <v>1546.24</v>
+        <v>1183.09</v>
       </c>
       <c r="C30" t="n">
         <v>0.00725</v>
       </c>
       <c r="D30" t="n">
-        <v>22.08914285714286</v>
+        <v>16.90128571428571</v>
       </c>
     </row>
     <row r="31">
@@ -2376,13 +2376,13 @@
         <v>0.6</v>
       </c>
       <c r="B31" t="n">
-        <v>1599.21</v>
+        <v>1223.75</v>
       </c>
       <c r="C31" t="n">
         <v>0.007499999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>22.84585714285714</v>
+        <v>17.48214285714286</v>
       </c>
     </row>
     <row r="32">
@@ -2390,13 +2390,13 @@
         <v>0.62</v>
       </c>
       <c r="B32" t="n">
-        <v>1652.06</v>
+        <v>1264.5</v>
       </c>
       <c r="C32" t="n">
         <v>0.00775</v>
       </c>
       <c r="D32" t="n">
-        <v>23.60085714285714</v>
+        <v>18.06428571428571</v>
       </c>
     </row>
     <row r="33">
@@ -2404,13 +2404,13 @@
         <v>0.64</v>
       </c>
       <c r="B33" t="n">
-        <v>1704.7</v>
+        <v>1305.25</v>
       </c>
       <c r="C33" t="n">
         <v>0.008</v>
       </c>
       <c r="D33" t="n">
-        <v>24.35285714285714</v>
+        <v>18.64642857142857</v>
       </c>
     </row>
     <row r="34">
@@ -2418,13 +2418,13 @@
         <v>0.66</v>
       </c>
       <c r="B34" t="n">
-        <v>1757.48</v>
+        <v>1345.96</v>
       </c>
       <c r="C34" t="n">
         <v>0.00825</v>
       </c>
       <c r="D34" t="n">
-        <v>25.10685714285714</v>
+        <v>19.228</v>
       </c>
     </row>
     <row r="35">
@@ -2432,13 +2432,13 @@
         <v>0.68</v>
       </c>
       <c r="B35" t="n">
-        <v>1810.14</v>
+        <v>1386.7</v>
       </c>
       <c r="C35" t="n">
         <v>0.008500000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>25.85914285714286</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="36">
@@ -2446,13 +2446,13 @@
         <v>0.7</v>
       </c>
       <c r="B36" t="n">
-        <v>1862.66</v>
+        <v>1427.44</v>
       </c>
       <c r="C36" t="n">
         <v>0.008749999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>26.60942857142857</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="37">
@@ -2460,13 +2460,13 @@
         <v>0.72</v>
       </c>
       <c r="B37" t="n">
-        <v>1915.07</v>
+        <v>1468.15</v>
       </c>
       <c r="C37" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>27.35814285714286</v>
+        <v>20.97357142857143</v>
       </c>
     </row>
     <row r="38">
@@ -2474,13 +2474,13 @@
         <v>0.74</v>
       </c>
       <c r="B38" t="n">
-        <v>1967.44</v>
+        <v>1508.8</v>
       </c>
       <c r="C38" t="n">
         <v>0.00925</v>
       </c>
       <c r="D38" t="n">
-        <v>28.10628571428571</v>
+        <v>21.55428571428572</v>
       </c>
     </row>
     <row r="39">
@@ -2488,13 +2488,13 @@
         <v>0.76</v>
       </c>
       <c r="B39" t="n">
-        <v>2019.76</v>
+        <v>1549.35</v>
       </c>
       <c r="C39" t="n">
         <v>0.0095</v>
       </c>
       <c r="D39" t="n">
-        <v>28.85371428571429</v>
+        <v>22.13357142857143</v>
       </c>
     </row>
     <row r="40">
@@ -2502,13 +2502,13 @@
         <v>0.78</v>
       </c>
       <c r="B40" t="n">
-        <v>2072.32</v>
+        <v>1589.92</v>
       </c>
       <c r="C40" t="n">
         <v>0.009750000000000002</v>
       </c>
       <c r="D40" t="n">
-        <v>29.60457142857143</v>
+        <v>22.71314285714286</v>
       </c>
     </row>
     <row r="41">
@@ -2516,13 +2516,13 @@
         <v>0.8</v>
       </c>
       <c r="B41" t="n">
-        <v>2124.48</v>
+        <v>1630.51</v>
       </c>
       <c r="C41" t="n">
         <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>30.34971428571428</v>
+        <v>23.293</v>
       </c>
     </row>
     <row r="42">
@@ -2530,13 +2530,13 @@
         <v>0.82</v>
       </c>
       <c r="B42" t="n">
-        <v>2176.58</v>
+        <v>1671.15</v>
       </c>
       <c r="C42" t="n">
         <v>0.01025</v>
       </c>
       <c r="D42" t="n">
-        <v>31.094</v>
+        <v>23.87357142857143</v>
       </c>
     </row>
     <row r="43">
@@ -2544,13 +2544,13 @@
         <v>0.84</v>
       </c>
       <c r="B43" t="n">
-        <v>2228.86</v>
+        <v>1711.81</v>
       </c>
       <c r="C43" t="n">
         <v>0.0105</v>
       </c>
       <c r="D43" t="n">
-        <v>31.84085714285715</v>
+        <v>24.45442857142857</v>
       </c>
     </row>
     <row r="44">
@@ -2558,13 +2558,13 @@
         <v>0.86</v>
       </c>
       <c r="B44" t="n">
-        <v>2281.01</v>
+        <v>1752.42</v>
       </c>
       <c r="C44" t="n">
         <v>0.01075</v>
       </c>
       <c r="D44" t="n">
-        <v>32.58585714285714</v>
+        <v>25.03457142857143</v>
       </c>
     </row>
     <row r="45">
@@ -2572,13 +2572,13 @@
         <v>0.88</v>
       </c>
       <c r="B45" t="n">
-        <v>2332.68</v>
+        <v>1793.06</v>
       </c>
       <c r="C45" t="n">
         <v>0.011</v>
       </c>
       <c r="D45" t="n">
-        <v>33.324</v>
+        <v>25.61514285714286</v>
       </c>
     </row>
     <row r="46">
@@ -2586,13 +2586,13 @@
         <v>0.9</v>
       </c>
       <c r="B46" t="n">
-        <v>2384.7</v>
+        <v>1833.61</v>
       </c>
       <c r="C46" t="n">
         <v>0.01125</v>
       </c>
       <c r="D46" t="n">
-        <v>34.06714285714285</v>
+        <v>26.19442857142857</v>
       </c>
     </row>
     <row r="47">
@@ -2600,13 +2600,13 @@
         <v>0.92</v>
       </c>
       <c r="B47" t="n">
-        <v>2436.07</v>
+        <v>1874.2</v>
       </c>
       <c r="C47" t="n">
         <v>0.0115</v>
       </c>
       <c r="D47" t="n">
-        <v>34.801</v>
+        <v>26.77428571428571</v>
       </c>
     </row>
     <row r="48">
@@ -2614,13 +2614,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>2485.14</v>
+        <v>1914.8</v>
       </c>
       <c r="C48" t="n">
         <v>0.01175</v>
       </c>
       <c r="D48" t="n">
-        <v>35.502</v>
+        <v>27.35428571428571</v>
       </c>
     </row>
     <row r="49">
@@ -2628,13 +2628,13 @@
         <v>0.96</v>
       </c>
       <c r="B49" t="n">
-        <v>2525.44</v>
+        <v>1955.36</v>
       </c>
       <c r="C49" t="n">
         <v>0.012</v>
       </c>
       <c r="D49" t="n">
-        <v>36.07771428571429</v>
+        <v>27.93371428571428</v>
       </c>
     </row>
     <row r="50">
@@ -2642,13 +2642,13 @@
         <v>0.98</v>
       </c>
       <c r="B50" t="n">
-        <v>2542.49</v>
+        <v>1995.96</v>
       </c>
       <c r="C50" t="n">
         <v>0.01225</v>
       </c>
       <c r="D50" t="n">
-        <v>36.32128571428571</v>
+        <v>28.51371428571429</v>
       </c>
     </row>
     <row r="51">
@@ -2656,13 +2656,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2536.67</v>
+        <v>2036.48</v>
       </c>
       <c r="C51" t="n">
         <v>0.0125</v>
       </c>
       <c r="D51" t="n">
-        <v>36.23814285714286</v>
+        <v>29.09257142857143</v>
       </c>
     </row>
     <row r="52">
@@ -2670,13 +2670,13 @@
         <v>1.02</v>
       </c>
       <c r="B52" t="n">
-        <v>2501.01</v>
+        <v>2076.8</v>
       </c>
       <c r="C52" t="n">
         <v>0.01275</v>
       </c>
       <c r="D52" t="n">
-        <v>35.72871428571429</v>
+        <v>29.66857142857143</v>
       </c>
     </row>
     <row r="53">
@@ -2684,13 +2684,13 @@
         <v>1.04</v>
       </c>
       <c r="B53" t="n">
-        <v>2430.09</v>
+        <v>2117.02</v>
       </c>
       <c r="C53" t="n">
         <v>0.013</v>
       </c>
       <c r="D53" t="n">
-        <v>34.71557142857143</v>
+        <v>30.24314285714286</v>
       </c>
     </row>
     <row r="54">
@@ -2698,13 +2698,13 @@
         <v>1.06</v>
       </c>
       <c r="B54" t="n">
-        <v>2181.74</v>
+        <v>2157.08</v>
       </c>
       <c r="C54" t="n">
         <v>0.01325</v>
       </c>
       <c r="D54" t="n">
-        <v>31.16771428571428</v>
+        <v>30.81542857142857</v>
       </c>
     </row>
     <row r="55">
@@ -2712,13 +2712,13 @@
         <v>1.08</v>
       </c>
       <c r="B55" t="n">
-        <v>1742.11</v>
+        <v>2196.73</v>
       </c>
       <c r="C55" t="n">
         <v>0.0135</v>
       </c>
       <c r="D55" t="n">
-        <v>24.88728571428571</v>
+        <v>31.38185714285714</v>
       </c>
     </row>
     <row r="56">
@@ -2726,13 +2726,13 @@
         <v>1.1</v>
       </c>
       <c r="B56" t="n">
-        <v>1561.52</v>
+        <v>2235.5</v>
       </c>
       <c r="C56" t="n">
         <v>0.01375</v>
       </c>
       <c r="D56" t="n">
-        <v>22.30742857142857</v>
+        <v>31.93571428571429</v>
       </c>
     </row>
     <row r="57">
@@ -2740,13 +2740,13 @@
         <v>1.12</v>
       </c>
       <c r="B57" t="n">
-        <v>1359.49</v>
+        <v>2272.29</v>
       </c>
       <c r="C57" t="n">
         <v>0.014</v>
       </c>
       <c r="D57" t="n">
-        <v>19.42128571428572</v>
+        <v>32.46128571428572</v>
       </c>
     </row>
     <row r="58">
@@ -2754,13 +2754,13 @@
         <v>1.14</v>
       </c>
       <c r="B58" t="n">
-        <v>1154.94</v>
+        <v>2301.95</v>
       </c>
       <c r="C58" t="n">
         <v>0.01425</v>
       </c>
       <c r="D58" t="n">
-        <v>16.49914285714286</v>
+        <v>32.885</v>
       </c>
     </row>
     <row r="59">
@@ -2768,13 +2768,13 @@
         <v>1.16</v>
       </c>
       <c r="B59" t="n">
-        <v>1029.63</v>
+        <v>2308.77</v>
       </c>
       <c r="C59" t="n">
         <v>0.0145</v>
       </c>
       <c r="D59" t="n">
-        <v>14.709</v>
+        <v>32.98242857142857</v>
       </c>
     </row>
     <row r="60">
@@ -2782,13 +2782,13 @@
         <v>1.18</v>
       </c>
       <c r="B60" t="n">
-        <v>879.798</v>
+        <v>2266.65</v>
       </c>
       <c r="C60" t="n">
         <v>0.01475</v>
       </c>
       <c r="D60" t="n">
-        <v>12.56854285714286</v>
+        <v>32.38071428571428</v>
       </c>
     </row>
     <row r="61">
@@ -2796,13 +2796,13 @@
         <v>1.2</v>
       </c>
       <c r="B61" t="n">
-        <v>693.681</v>
+        <v>2131.81</v>
       </c>
       <c r="C61" t="n">
         <v>0.015</v>
       </c>
       <c r="D61" t="n">
-        <v>9.909728571428571</v>
+        <v>30.45442857142857</v>
       </c>
     </row>
     <row r="62">
@@ -2810,13 +2810,13 @@
         <v>1.22</v>
       </c>
       <c r="B62" t="n">
-        <v>542.357</v>
+        <v>1949.24</v>
       </c>
       <c r="C62" t="n">
         <v>0.01525</v>
       </c>
       <c r="D62" t="n">
-        <v>7.747957142857143</v>
+        <v>27.84628571428571</v>
       </c>
     </row>
     <row r="63">
@@ -2824,13 +2824,13 @@
         <v>1.24</v>
       </c>
       <c r="B63" t="n">
-        <v>443.004</v>
+        <v>1678.1</v>
       </c>
       <c r="C63" t="n">
         <v>0.0155</v>
       </c>
       <c r="D63" t="n">
-        <v>6.328628571428571</v>
+        <v>23.97285714285714</v>
       </c>
     </row>
     <row r="64">
@@ -2838,13 +2838,13 @@
         <v>1.26</v>
       </c>
       <c r="B64" t="n">
-        <v>351.031</v>
+        <v>1420.7</v>
       </c>
       <c r="C64" t="n">
         <v>0.01575</v>
       </c>
       <c r="D64" t="n">
-        <v>5.014728571428572</v>
+        <v>20.29571428571429</v>
       </c>
     </row>
     <row r="65">
@@ -2852,13 +2852,13 @@
         <v>1.28</v>
       </c>
       <c r="B65" t="n">
-        <v>196.745</v>
+        <v>1176.79</v>
       </c>
       <c r="C65" t="n">
         <v>0.016</v>
       </c>
       <c r="D65" t="n">
-        <v>2.810642857142857</v>
+        <v>16.81128571428571</v>
       </c>
     </row>
     <row r="66">
@@ -2866,13 +2866,13 @@
         <v>1.3</v>
       </c>
       <c r="B66" t="n">
-        <v>137.557</v>
+        <v>1043.91</v>
       </c>
       <c r="C66" t="n">
         <v>0.01625</v>
       </c>
       <c r="D66" t="n">
-        <v>1.9651</v>
+        <v>14.913</v>
       </c>
     </row>
     <row r="67">
@@ -2880,13 +2880,13 @@
         <v>1.32</v>
       </c>
       <c r="B67" t="n">
-        <v>110.336</v>
+        <v>933.52</v>
       </c>
       <c r="C67" t="n">
         <v>0.0165</v>
       </c>
       <c r="D67" t="n">
-        <v>1.576228571428571</v>
+        <v>13.336</v>
       </c>
     </row>
     <row r="68">
@@ -2894,13 +2894,13 @@
         <v>1.34</v>
       </c>
       <c r="B68" t="n">
-        <v>102.943</v>
+        <v>856.9349999999999</v>
       </c>
       <c r="C68" t="n">
         <v>0.01675</v>
       </c>
       <c r="D68" t="n">
-        <v>1.470614285714286</v>
+        <v>12.24192857142857</v>
       </c>
     </row>
     <row r="69">
@@ -2908,13 +2908,13 @@
         <v>1.36</v>
       </c>
       <c r="B69" t="n">
-        <v>99.5149</v>
+        <v>794.247</v>
       </c>
       <c r="C69" t="n">
         <v>0.017</v>
       </c>
       <c r="D69" t="n">
-        <v>1.421641428571429</v>
+        <v>11.34638571428571</v>
       </c>
     </row>
     <row r="70">
@@ -2922,13 +2922,13 @@
         <v>1.38</v>
       </c>
       <c r="B70" t="n">
-        <v>95.7654</v>
+        <v>755.035</v>
       </c>
       <c r="C70" t="n">
         <v>0.01725</v>
       </c>
       <c r="D70" t="n">
-        <v>1.368077142857143</v>
+        <v>10.78621428571429</v>
       </c>
     </row>
     <row r="71">
@@ -2936,13 +2936,13 @@
         <v>1.4</v>
       </c>
       <c r="B71" t="n">
-        <v>93.06100000000001</v>
+        <v>717.806</v>
       </c>
       <c r="C71" t="n">
         <v>0.0175</v>
       </c>
       <c r="D71" t="n">
-        <v>1.329442857142857</v>
+        <v>10.25437142857143</v>
       </c>
     </row>
     <row r="72">
@@ -2950,13 +2950,13 @@
         <v>1.42</v>
       </c>
       <c r="B72" t="n">
-        <v>90.6729</v>
+        <v>676.405</v>
       </c>
       <c r="C72" t="n">
         <v>0.01775</v>
       </c>
       <c r="D72" t="n">
-        <v>1.295327142857143</v>
+        <v>9.662928571428571</v>
       </c>
     </row>
     <row r="73">
@@ -2964,13 +2964,13 @@
         <v>1.44</v>
       </c>
       <c r="B73" t="n">
-        <v>88.7919</v>
+        <v>618.4109999999999</v>
       </c>
       <c r="C73" t="n">
         <v>0.018</v>
       </c>
       <c r="D73" t="n">
-        <v>1.268455714285714</v>
+        <v>8.834442857142855</v>
       </c>
     </row>
     <row r="74">
@@ -2978,13 +2978,13 @@
         <v>1.46</v>
       </c>
       <c r="B74" t="n">
-        <v>88.4072</v>
+        <v>503.388</v>
       </c>
       <c r="C74" t="n">
         <v>0.01825</v>
       </c>
       <c r="D74" t="n">
-        <v>1.26296</v>
+        <v>7.191257142857142</v>
       </c>
     </row>
     <row r="75">
@@ -2992,13 +2992,13 @@
         <v>1.48</v>
       </c>
       <c r="B75" t="n">
-        <v>88.3408</v>
+        <v>378.474</v>
       </c>
       <c r="C75" t="n">
         <v>0.0185</v>
       </c>
       <c r="D75" t="n">
-        <v>1.262011428571429</v>
+        <v>5.406771428571428</v>
       </c>
     </row>
     <row r="76">
@@ -3006,13 +3006,13 @@
         <v>1.5</v>
       </c>
       <c r="B76" t="n">
-        <v>88.6876</v>
+        <v>291.963</v>
       </c>
       <c r="C76" t="n">
         <v>0.01875</v>
       </c>
       <c r="D76" t="n">
-        <v>1.266965714285714</v>
+        <v>4.1709</v>
       </c>
     </row>
     <row r="77">
@@ -3020,13 +3020,13 @@
         <v>1.52</v>
       </c>
       <c r="B77" t="n">
-        <v>89.3823</v>
+        <v>242.291</v>
       </c>
       <c r="C77" t="n">
         <v>0.019</v>
       </c>
       <c r="D77" t="n">
-        <v>1.27689</v>
+        <v>3.4613</v>
       </c>
     </row>
     <row r="78">
@@ -3034,13 +3034,13 @@
         <v>1.54</v>
       </c>
       <c r="B78" t="n">
-        <v>89.9931</v>
+        <v>207.614</v>
       </c>
       <c r="C78" t="n">
         <v>0.01925</v>
       </c>
       <c r="D78" t="n">
-        <v>1.285615714285714</v>
+        <v>2.965914285714286</v>
       </c>
     </row>
     <row r="79">
@@ -3048,13 +3048,13 @@
         <v>1.56</v>
       </c>
       <c r="B79" t="n">
-        <v>90.5793</v>
+        <v>176.202</v>
       </c>
       <c r="C79" t="n">
         <v>0.0195</v>
       </c>
       <c r="D79" t="n">
-        <v>1.29399</v>
+        <v>2.517171428571428</v>
       </c>
     </row>
     <row r="80">
@@ -3062,13 +3062,13 @@
         <v>1.58</v>
       </c>
       <c r="B80" t="n">
-        <v>90.4117</v>
+        <v>96.01779999999999</v>
       </c>
       <c r="C80" t="n">
         <v>0.01975</v>
       </c>
       <c r="D80" t="n">
-        <v>1.291595714285714</v>
+        <v>1.371682857142857</v>
       </c>
     </row>
     <row r="81">
@@ -3076,13 +3076,13 @@
         <v>1.6</v>
       </c>
       <c r="B81" t="n">
-        <v>91.1948</v>
+        <v>8.903840000000001</v>
       </c>
       <c r="C81" t="n">
         <v>0.02</v>
       </c>
       <c r="D81" t="n">
-        <v>1.302782857142857</v>
+        <v>0.1271977142857143</v>
       </c>
     </row>
     <row r="82">
@@ -3090,13 +3090,13 @@
         <v>1.62</v>
       </c>
       <c r="B82" t="n">
-        <v>92.2403</v>
+        <v>6.74505</v>
       </c>
       <c r="C82" t="n">
         <v>0.02025</v>
       </c>
       <c r="D82" t="n">
-        <v>1.317718571428572</v>
+        <v>0.09635785714285715</v>
       </c>
     </row>
     <row r="83">
@@ -3104,13 +3104,13 @@
         <v>1.64</v>
       </c>
       <c r="B83" t="n">
-        <v>93.02249999999999</v>
+        <v>6.25964</v>
       </c>
       <c r="C83" t="n">
         <v>0.0205</v>
       </c>
       <c r="D83" t="n">
-        <v>1.328892857142857</v>
+        <v>0.08942342857142857</v>
       </c>
     </row>
     <row r="84">
@@ -3118,13 +3118,13 @@
         <v>1.66</v>
       </c>
       <c r="B84" t="n">
-        <v>93.5348</v>
+        <v>6.19319</v>
       </c>
       <c r="C84" t="n">
         <v>0.02075</v>
       </c>
       <c r="D84" t="n">
-        <v>1.336211428571429</v>
+        <v>0.08847414285714286</v>
       </c>
     </row>
     <row r="85">
@@ -3132,13 +3132,13 @@
         <v>1.68</v>
       </c>
       <c r="B85" t="n">
-        <v>93.4371</v>
+        <v>6.22935</v>
       </c>
       <c r="C85" t="n">
         <v>0.021</v>
       </c>
       <c r="D85" t="n">
-        <v>1.334815714285714</v>
+        <v>0.08899071428571428</v>
       </c>
     </row>
     <row r="86">
@@ -3146,13 +3146,13 @@
         <v>1.7</v>
       </c>
       <c r="B86" t="n">
-        <v>92.6104</v>
+        <v>6.30328</v>
       </c>
       <c r="C86" t="n">
         <v>0.02125</v>
       </c>
       <c r="D86" t="n">
-        <v>1.323005714285714</v>
+        <v>0.09004685714285714</v>
       </c>
     </row>
     <row r="87">
@@ -3160,13 +3160,13 @@
         <v>1.72</v>
       </c>
       <c r="B87" t="n">
-        <v>91.75449999999999</v>
+        <v>6.37739</v>
       </c>
       <c r="C87" t="n">
         <v>0.0215</v>
       </c>
       <c r="D87" t="n">
-        <v>1.310778571428571</v>
+        <v>0.09110557142857142</v>
       </c>
     </row>
     <row r="88">
@@ -3174,13 +3174,13 @@
         <v>1.74</v>
       </c>
       <c r="B88" t="n">
-        <v>91.6053</v>
+        <v>6.44233</v>
       </c>
       <c r="C88" t="n">
         <v>0.02175</v>
       </c>
       <c r="D88" t="n">
-        <v>1.308647142857143</v>
+        <v>0.09203328571428572</v>
       </c>
     </row>
     <row r="89">
@@ -3188,13 +3188,13 @@
         <v>1.76</v>
       </c>
       <c r="B89" t="n">
-        <v>91.9483</v>
+        <v>6.5048</v>
       </c>
       <c r="C89" t="n">
         <v>0.022</v>
       </c>
       <c r="D89" t="n">
-        <v>1.313547142857143</v>
+        <v>0.09292571428571429</v>
       </c>
     </row>
     <row r="90">
@@ -3202,13 +3202,13 @@
         <v>1.78</v>
       </c>
       <c r="B90" t="n">
-        <v>92.1317</v>
+        <v>6.57872</v>
       </c>
       <c r="C90" t="n">
         <v>0.02225</v>
       </c>
       <c r="D90" t="n">
-        <v>1.316167142857143</v>
+        <v>0.09398171428571428</v>
       </c>
     </row>
     <row r="91">
@@ -3216,13 +3216,13 @@
         <v>1.8</v>
       </c>
       <c r="B91" t="n">
-        <v>92.0172</v>
+        <v>6.60653</v>
       </c>
       <c r="C91" t="n">
         <v>0.0225</v>
       </c>
       <c r="D91" t="n">
-        <v>1.314531428571429</v>
+        <v>0.094379</v>
       </c>
     </row>
     <row r="92">
@@ -3230,13 +3230,13 @@
         <v>1.82</v>
       </c>
       <c r="B92" t="n">
-        <v>90.5324</v>
+        <v>6.67822</v>
       </c>
       <c r="C92" t="n">
         <v>0.02275</v>
       </c>
       <c r="D92" t="n">
-        <v>1.29332</v>
+        <v>0.09540314285714285</v>
       </c>
     </row>
     <row r="93">
@@ -3244,13 +3244,13 @@
         <v>1.84</v>
       </c>
       <c r="B93" t="n">
-        <v>84.48999999999999</v>
+        <v>6.75002</v>
       </c>
       <c r="C93" t="n">
         <v>0.023</v>
       </c>
       <c r="D93" t="n">
-        <v>1.207</v>
+        <v>0.09642885714285715</v>
       </c>
     </row>
     <row r="94">
@@ -3258,13 +3258,13 @@
         <v>1.86</v>
       </c>
       <c r="B94" t="n">
-        <v>73.5252</v>
+        <v>6.82339</v>
       </c>
       <c r="C94" t="n">
         <v>0.02325</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05036</v>
+        <v>0.09747699999999999</v>
       </c>
     </row>
     <row r="95">
@@ -3272,13 +3272,13 @@
         <v>1.88</v>
       </c>
       <c r="B95" t="n">
-        <v>58.2428</v>
+        <v>6.88615</v>
       </c>
       <c r="C95" t="n">
         <v>0.0235</v>
       </c>
       <c r="D95" t="n">
-        <v>0.83204</v>
+        <v>0.09837357142857142</v>
       </c>
     </row>
     <row r="96">
@@ -3286,13 +3286,13 @@
         <v>1.9</v>
       </c>
       <c r="B96" t="n">
-        <v>47.6575</v>
+        <v>6.95918</v>
       </c>
       <c r="C96" t="n">
         <v>0.02375</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6808214285714286</v>
+        <v>0.09941685714285714</v>
       </c>
     </row>
     <row r="97">
@@ -3300,13 +3300,13 @@
         <v>1.92</v>
       </c>
       <c r="B97" t="n">
-        <v>43.7399</v>
+        <v>7.03243</v>
       </c>
       <c r="C97" t="n">
         <v>0.024</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6248557142857143</v>
+        <v>0.1004632857142857</v>
       </c>
     </row>
     <row r="98">
@@ -3314,13 +3314,13 @@
         <v>1.94</v>
       </c>
       <c r="B98" t="n">
-        <v>40.4435</v>
+        <v>7.10505</v>
       </c>
       <c r="C98" t="n">
         <v>0.02425</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5777642857142857</v>
+        <v>0.1015007142857143</v>
       </c>
     </row>
     <row r="99">
@@ -3328,13 +3328,13 @@
         <v>1.96</v>
       </c>
       <c r="B99" t="n">
-        <v>38.8187</v>
+        <v>7.1491</v>
       </c>
       <c r="C99" t="n">
         <v>0.0245</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5545528571428572</v>
+        <v>0.10213</v>
       </c>
     </row>
     <row r="100">
@@ -3342,83 +3342,27 @@
         <v>1.98</v>
       </c>
       <c r="B100" t="n">
-        <v>37.3807</v>
+        <v>7.16038</v>
       </c>
       <c r="C100" t="n">
         <v>0.02475</v>
       </c>
       <c r="D100" t="n">
-        <v>0.53401</v>
+        <v>0.1022911428571429</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>36.907</v>
+        <v>6.70413</v>
       </c>
       <c r="C101" t="n">
-        <v>0.024875</v>
+        <v>0.025</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5272428571428571</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1.995</v>
-      </c>
-      <c r="B102" t="n">
-        <v>36.4852</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.0249375</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.5212171428571428</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1.997</v>
-      </c>
-      <c r="B103" t="n">
-        <v>36.0422</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.0249625</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.5148885714285715</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1.9985</v>
-      </c>
-      <c r="B104" t="n">
-        <v>35.1003</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.02498125</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.5014328571428571</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>2</v>
-      </c>
-      <c r="B105" t="n">
-        <v>34.4212</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.4917314285714285</v>
+        <v>0.09577328571428571</v>
       </c>
     </row>
   </sheetData>
@@ -3433,7 +3377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3464,7 +3408,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>7\kasa=1.3\thickness=1.41\7_kasa2.3_th1.41.csv</t>
+          <t>7\kasa=1.3\thickness=1.41\7_kasa1.3_th1.41.csv</t>
         </is>
       </c>
     </row>
@@ -3473,13 +3417,13 @@
         <v>0.02</v>
       </c>
       <c r="B2" t="n">
-        <v>53.51</v>
+        <v>49.8131</v>
       </c>
       <c r="C2" t="n">
         <v>0.00025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7644285714285713</v>
+        <v>0.7116157142857142</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3487,7 +3431,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36.32128571428571</v>
+        <v>36.95385714285715</v>
       </c>
     </row>
     <row r="3">
@@ -3495,13 +3439,13 @@
         <v>0.04</v>
       </c>
       <c r="B3" t="n">
-        <v>107.02</v>
+        <v>99.6262</v>
       </c>
       <c r="C3" t="n">
         <v>0.0005</v>
       </c>
       <c r="D3" t="n">
-        <v>1.528857142857143</v>
+        <v>1.423231428571428</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3509,7 +3453,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3057.498181818181</v>
+        <v>2846.360415584415</v>
       </c>
     </row>
     <row r="4">
@@ -3517,13 +3461,13 @@
         <v>0.06</v>
       </c>
       <c r="B4" t="n">
-        <v>160.53</v>
+        <v>149.439</v>
       </c>
       <c r="C4" t="n">
         <v>0.00075</v>
       </c>
       <c r="D4" t="n">
-        <v>2.293285714285714</v>
+        <v>2.134842857142857</v>
       </c>
     </row>
     <row r="5">
@@ -3531,13 +3475,13 @@
         <v>0.08</v>
       </c>
       <c r="B5" t="n">
-        <v>214.04</v>
+        <v>199.252</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
       </c>
       <c r="D5" t="n">
-        <v>3.057714285714285</v>
+        <v>2.846457142857143</v>
       </c>
     </row>
     <row r="6">
@@ -3545,13 +3489,13 @@
         <v>0.1</v>
       </c>
       <c r="B6" t="n">
-        <v>267.55</v>
+        <v>249.066</v>
       </c>
       <c r="C6" t="n">
         <v>0.00125</v>
       </c>
       <c r="D6" t="n">
-        <v>3.822142857142858</v>
+        <v>3.558085714285714</v>
       </c>
     </row>
     <row r="7">
@@ -3559,13 +3503,13 @@
         <v>0.12</v>
       </c>
       <c r="B7" t="n">
-        <v>321.06</v>
+        <v>298.879</v>
       </c>
       <c r="C7" t="n">
         <v>0.0015</v>
       </c>
       <c r="D7" t="n">
-        <v>4.586571428571428</v>
+        <v>4.2697</v>
       </c>
     </row>
     <row r="8">
@@ -3573,13 +3517,13 @@
         <v>0.14</v>
       </c>
       <c r="B8" t="n">
-        <v>374.57</v>
+        <v>348.692</v>
       </c>
       <c r="C8" t="n">
         <v>0.00175</v>
       </c>
       <c r="D8" t="n">
-        <v>5.351</v>
+        <v>4.981314285714286</v>
       </c>
     </row>
     <row r="9">
@@ -3587,13 +3531,13 @@
         <v>0.16</v>
       </c>
       <c r="B9" t="n">
-        <v>428.077</v>
+        <v>398.501</v>
       </c>
       <c r="C9" t="n">
         <v>0.002</v>
       </c>
       <c r="D9" t="n">
-        <v>6.115385714285714</v>
+        <v>5.692871428571428</v>
       </c>
     </row>
     <row r="10">
@@ -3601,13 +3545,13 @@
         <v>0.18</v>
       </c>
       <c r="B10" t="n">
-        <v>481.575</v>
+        <v>448.301</v>
       </c>
       <c r="C10" t="n">
         <v>0.00225</v>
       </c>
       <c r="D10" t="n">
-        <v>6.879642857142857</v>
+        <v>6.4043</v>
       </c>
     </row>
     <row r="11">
@@ -3615,13 +3559,13 @@
         <v>0.2</v>
       </c>
       <c r="B11" t="n">
-        <v>535.044</v>
+        <v>498.113</v>
       </c>
       <c r="C11" t="n">
         <v>0.0025</v>
       </c>
       <c r="D11" t="n">
-        <v>7.643485714285714</v>
+        <v>7.1159</v>
       </c>
     </row>
     <row r="12">
@@ -3629,13 +3573,13 @@
         <v>0.22</v>
       </c>
       <c r="B12" t="n">
-        <v>588.442</v>
+        <v>547.913</v>
       </c>
       <c r="C12" t="n">
         <v>0.00275</v>
       </c>
       <c r="D12" t="n">
-        <v>8.406314285714286</v>
+        <v>7.827328571428572</v>
       </c>
     </row>
     <row r="13">
@@ -3643,13 +3587,13 @@
         <v>0.24</v>
       </c>
       <c r="B13" t="n">
-        <v>641.847</v>
+        <v>597.699</v>
       </c>
       <c r="C13" t="n">
         <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>9.169242857142857</v>
+        <v>8.538557142857142</v>
       </c>
     </row>
     <row r="14">
@@ -3657,13 +3601,13 @@
         <v>0.26</v>
       </c>
       <c r="B14" t="n">
-        <v>695.087</v>
+        <v>647.41</v>
       </c>
       <c r="C14" t="n">
         <v>0.00325</v>
       </c>
       <c r="D14" t="n">
-        <v>9.929814285714286</v>
+        <v>9.248714285714286</v>
       </c>
     </row>
     <row r="15">
@@ -3671,13 +3615,13 @@
         <v>0.28</v>
       </c>
       <c r="B15" t="n">
-        <v>748.194</v>
+        <v>696.92</v>
       </c>
       <c r="C15" t="n">
         <v>0.003500000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>10.68848571428571</v>
+        <v>9.956</v>
       </c>
     </row>
     <row r="16">
@@ -3685,13 +3629,13 @@
         <v>0.3</v>
       </c>
       <c r="B16" t="n">
-        <v>801.474</v>
+        <v>746.4</v>
       </c>
       <c r="C16" t="n">
         <v>0.003749999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>11.44962857142857</v>
+        <v>10.66285714285714</v>
       </c>
     </row>
     <row r="17">
@@ -3699,13 +3643,13 @@
         <v>0.32</v>
       </c>
       <c r="B17" t="n">
-        <v>854.8</v>
+        <v>795.901</v>
       </c>
       <c r="C17" t="n">
         <v>0.004</v>
       </c>
       <c r="D17" t="n">
-        <v>12.21142857142857</v>
+        <v>11.37001428571429</v>
       </c>
     </row>
     <row r="18">
@@ -3713,13 +3657,13 @@
         <v>0.34</v>
       </c>
       <c r="B18" t="n">
-        <v>908.032</v>
+        <v>845.53</v>
       </c>
       <c r="C18" t="n">
         <v>0.00425</v>
       </c>
       <c r="D18" t="n">
-        <v>12.97188571428572</v>
+        <v>12.079</v>
       </c>
     </row>
     <row r="19">
@@ -3727,13 +3671,13 @@
         <v>0.36</v>
       </c>
       <c r="B19" t="n">
-        <v>961.289</v>
+        <v>895.122</v>
       </c>
       <c r="C19" t="n">
         <v>0.0045</v>
       </c>
       <c r="D19" t="n">
-        <v>13.7327</v>
+        <v>12.78745714285714</v>
       </c>
     </row>
     <row r="20">
@@ -3741,13 +3685,13 @@
         <v>0.38</v>
       </c>
       <c r="B20" t="n">
-        <v>1014.48</v>
+        <v>944.686</v>
       </c>
       <c r="C20" t="n">
         <v>0.00475</v>
       </c>
       <c r="D20" t="n">
-        <v>14.49257142857143</v>
+        <v>13.49551428571429</v>
       </c>
     </row>
     <row r="21">
@@ -3755,13 +3699,13 @@
         <v>0.4</v>
       </c>
       <c r="B21" t="n">
-        <v>1067.69</v>
+        <v>994.27</v>
       </c>
       <c r="C21" t="n">
         <v>0.005</v>
       </c>
       <c r="D21" t="n">
-        <v>15.25271428571429</v>
+        <v>14.20385714285714</v>
       </c>
     </row>
     <row r="22">
@@ -3769,13 +3713,13 @@
         <v>0.42</v>
       </c>
       <c r="B22" t="n">
-        <v>1120.81</v>
+        <v>1043.81</v>
       </c>
       <c r="C22" t="n">
         <v>0.00525</v>
       </c>
       <c r="D22" t="n">
-        <v>16.01157142857143</v>
+        <v>14.91157142857143</v>
       </c>
     </row>
     <row r="23">
@@ -3783,13 +3727,13 @@
         <v>0.44</v>
       </c>
       <c r="B23" t="n">
-        <v>1174.06</v>
+        <v>1093.35</v>
       </c>
       <c r="C23" t="n">
         <v>0.0055</v>
       </c>
       <c r="D23" t="n">
-        <v>16.77228571428572</v>
+        <v>15.61928571428571</v>
       </c>
     </row>
     <row r="24">
@@ -3797,13 +3741,13 @@
         <v>0.46</v>
       </c>
       <c r="B24" t="n">
-        <v>1227.18</v>
+        <v>1142.97</v>
       </c>
       <c r="C24" t="n">
         <v>0.00575</v>
       </c>
       <c r="D24" t="n">
-        <v>17.53114285714286</v>
+        <v>16.32814285714286</v>
       </c>
     </row>
     <row r="25">
@@ -3811,13 +3755,13 @@
         <v>0.48</v>
       </c>
       <c r="B25" t="n">
-        <v>1280.39</v>
+        <v>1192.59</v>
       </c>
       <c r="C25" t="n">
         <v>0.006</v>
       </c>
       <c r="D25" t="n">
-        <v>18.29128571428572</v>
+        <v>17.037</v>
       </c>
     </row>
     <row r="26">
@@ -3825,13 +3769,13 @@
         <v>0.5</v>
       </c>
       <c r="B26" t="n">
-        <v>1333.61</v>
+        <v>1242.14</v>
       </c>
       <c r="C26" t="n">
         <v>0.00625</v>
       </c>
       <c r="D26" t="n">
-        <v>19.05157142857143</v>
+        <v>17.74485714285714</v>
       </c>
     </row>
     <row r="27">
@@ -3839,13 +3783,13 @@
         <v>0.52</v>
       </c>
       <c r="B27" t="n">
-        <v>1386.79</v>
+        <v>1291.52</v>
       </c>
       <c r="C27" t="n">
         <v>0.006500000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>19.81128571428571</v>
+        <v>18.45028571428571</v>
       </c>
     </row>
     <row r="28">
@@ -3853,13 +3797,13 @@
         <v>0.54</v>
       </c>
       <c r="B28" t="n">
-        <v>1440.01</v>
+        <v>1340.98</v>
       </c>
       <c r="C28" t="n">
         <v>0.00675</v>
       </c>
       <c r="D28" t="n">
-        <v>20.57157142857143</v>
+        <v>19.15685714285714</v>
       </c>
     </row>
     <row r="29">
@@ -3867,13 +3811,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>1493.11</v>
+        <v>1390.45</v>
       </c>
       <c r="C29" t="n">
         <v>0.007000000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>21.33014285714286</v>
+        <v>19.86357142857143</v>
       </c>
     </row>
     <row r="30">
@@ -3881,13 +3825,13 @@
         <v>0.58</v>
       </c>
       <c r="B30" t="n">
-        <v>1546.24</v>
+        <v>1439.93</v>
       </c>
       <c r="C30" t="n">
         <v>0.00725</v>
       </c>
       <c r="D30" t="n">
-        <v>22.08914285714286</v>
+        <v>20.57042857142857</v>
       </c>
     </row>
     <row r="31">
@@ -3895,13 +3839,13 @@
         <v>0.6</v>
       </c>
       <c r="B31" t="n">
-        <v>1599.21</v>
+        <v>1489.48</v>
       </c>
       <c r="C31" t="n">
         <v>0.007499999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>22.84585714285714</v>
+        <v>21.27828571428572</v>
       </c>
     </row>
     <row r="32">
@@ -3909,13 +3853,13 @@
         <v>0.62</v>
       </c>
       <c r="B32" t="n">
-        <v>1652.06</v>
+        <v>1538.97</v>
       </c>
       <c r="C32" t="n">
         <v>0.00775</v>
       </c>
       <c r="D32" t="n">
-        <v>23.60085714285714</v>
+        <v>21.98528571428572</v>
       </c>
     </row>
     <row r="33">
@@ -3923,13 +3867,13 @@
         <v>0.64</v>
       </c>
       <c r="B33" t="n">
-        <v>1704.7</v>
+        <v>1588.45</v>
       </c>
       <c r="C33" t="n">
         <v>0.008</v>
       </c>
       <c r="D33" t="n">
-        <v>24.35285714285714</v>
+        <v>22.69214285714286</v>
       </c>
     </row>
     <row r="34">
@@ -3937,13 +3881,13 @@
         <v>0.66</v>
       </c>
       <c r="B34" t="n">
-        <v>1757.48</v>
+        <v>1637.92</v>
       </c>
       <c r="C34" t="n">
         <v>0.00825</v>
       </c>
       <c r="D34" t="n">
-        <v>25.10685714285714</v>
+        <v>23.39885714285714</v>
       </c>
     </row>
     <row r="35">
@@ -3951,13 +3895,13 @@
         <v>0.68</v>
       </c>
       <c r="B35" t="n">
-        <v>1810.14</v>
+        <v>1687.32</v>
       </c>
       <c r="C35" t="n">
         <v>0.008500000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>25.85914285714286</v>
+        <v>24.10457142857143</v>
       </c>
     </row>
     <row r="36">
@@ -3965,13 +3909,13 @@
         <v>0.7</v>
       </c>
       <c r="B36" t="n">
-        <v>1862.66</v>
+        <v>1736.57</v>
       </c>
       <c r="C36" t="n">
         <v>0.008749999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>26.60942857142857</v>
+        <v>24.80814285714285</v>
       </c>
     </row>
     <row r="37">
@@ -3979,13 +3923,13 @@
         <v>0.72</v>
       </c>
       <c r="B37" t="n">
-        <v>1915.07</v>
+        <v>1785.9</v>
       </c>
       <c r="C37" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>27.35814285714286</v>
+        <v>25.51285714285714</v>
       </c>
     </row>
     <row r="38">
@@ -3993,13 +3937,13 @@
         <v>0.74</v>
       </c>
       <c r="B38" t="n">
-        <v>1967.44</v>
+        <v>1835.19</v>
       </c>
       <c r="C38" t="n">
         <v>0.00925</v>
       </c>
       <c r="D38" t="n">
-        <v>28.10628571428571</v>
+        <v>26.217</v>
       </c>
     </row>
     <row r="39">
@@ -4007,13 +3951,13 @@
         <v>0.76</v>
       </c>
       <c r="B39" t="n">
-        <v>2019.76</v>
+        <v>1884.42</v>
       </c>
       <c r="C39" t="n">
         <v>0.0095</v>
       </c>
       <c r="D39" t="n">
-        <v>28.85371428571429</v>
+        <v>26.92028571428571</v>
       </c>
     </row>
     <row r="40">
@@ -4021,13 +3965,13 @@
         <v>0.78</v>
       </c>
       <c r="B40" t="n">
-        <v>2072.32</v>
+        <v>1933.57</v>
       </c>
       <c r="C40" t="n">
         <v>0.009750000000000002</v>
       </c>
       <c r="D40" t="n">
-        <v>29.60457142857143</v>
+        <v>27.62242857142857</v>
       </c>
     </row>
     <row r="41">
@@ -4035,13 +3979,13 @@
         <v>0.8</v>
       </c>
       <c r="B41" t="n">
-        <v>2124.48</v>
+        <v>1982.66</v>
       </c>
       <c r="C41" t="n">
         <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>30.34971428571428</v>
+        <v>28.32371428571429</v>
       </c>
     </row>
     <row r="42">
@@ -4049,13 +3993,13 @@
         <v>0.82</v>
       </c>
       <c r="B42" t="n">
-        <v>2176.58</v>
+        <v>2031.73</v>
       </c>
       <c r="C42" t="n">
         <v>0.01025</v>
       </c>
       <c r="D42" t="n">
-        <v>31.094</v>
+        <v>29.02471428571429</v>
       </c>
     </row>
     <row r="43">
@@ -4063,13 +4007,13 @@
         <v>0.84</v>
       </c>
       <c r="B43" t="n">
-        <v>2228.86</v>
+        <v>2080.43</v>
       </c>
       <c r="C43" t="n">
         <v>0.0105</v>
       </c>
       <c r="D43" t="n">
-        <v>31.84085714285715</v>
+        <v>29.72042857142857</v>
       </c>
     </row>
     <row r="44">
@@ -4077,13 +4021,13 @@
         <v>0.86</v>
       </c>
       <c r="B44" t="n">
-        <v>2281.01</v>
+        <v>2129.17</v>
       </c>
       <c r="C44" t="n">
         <v>0.01075</v>
       </c>
       <c r="D44" t="n">
-        <v>32.58585714285714</v>
+        <v>30.41671428571429</v>
       </c>
     </row>
     <row r="45">
@@ -4091,13 +4035,13 @@
         <v>0.88</v>
       </c>
       <c r="B45" t="n">
-        <v>2332.68</v>
+        <v>2177.98</v>
       </c>
       <c r="C45" t="n">
         <v>0.011</v>
       </c>
       <c r="D45" t="n">
-        <v>33.324</v>
+        <v>31.114</v>
       </c>
     </row>
     <row r="46">
@@ -4105,13 +4049,13 @@
         <v>0.9</v>
       </c>
       <c r="B46" t="n">
-        <v>2384.7</v>
+        <v>2226.56</v>
       </c>
       <c r="C46" t="n">
         <v>0.01125</v>
       </c>
       <c r="D46" t="n">
-        <v>34.06714285714285</v>
+        <v>31.808</v>
       </c>
     </row>
     <row r="47">
@@ -4119,13 +4063,13 @@
         <v>0.92</v>
       </c>
       <c r="B47" t="n">
-        <v>2436.07</v>
+        <v>2275.32</v>
       </c>
       <c r="C47" t="n">
         <v>0.0115</v>
       </c>
       <c r="D47" t="n">
-        <v>34.801</v>
+        <v>32.50457142857143</v>
       </c>
     </row>
     <row r="48">
@@ -4133,13 +4077,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>2485.14</v>
+        <v>2324.13</v>
       </c>
       <c r="C48" t="n">
         <v>0.01175</v>
       </c>
       <c r="D48" t="n">
-        <v>35.502</v>
+        <v>33.20185714285714</v>
       </c>
     </row>
     <row r="49">
@@ -4147,13 +4091,13 @@
         <v>0.96</v>
       </c>
       <c r="B49" t="n">
-        <v>2525.44</v>
+        <v>2372.9</v>
       </c>
       <c r="C49" t="n">
         <v>0.012</v>
       </c>
       <c r="D49" t="n">
-        <v>36.07771428571429</v>
+        <v>33.89857142857143</v>
       </c>
     </row>
     <row r="50">
@@ -4161,13 +4105,13 @@
         <v>0.98</v>
       </c>
       <c r="B50" t="n">
-        <v>2542.49</v>
+        <v>2421.49</v>
       </c>
       <c r="C50" t="n">
         <v>0.01225</v>
       </c>
       <c r="D50" t="n">
-        <v>36.32128571428571</v>
+        <v>34.59271428571428</v>
       </c>
     </row>
     <row r="51">
@@ -4175,13 +4119,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2536.67</v>
+        <v>2469.75</v>
       </c>
       <c r="C51" t="n">
         <v>0.0125</v>
       </c>
       <c r="D51" t="n">
-        <v>36.23814285714286</v>
+        <v>35.28214285714286</v>
       </c>
     </row>
     <row r="52">
@@ -4189,13 +4133,13 @@
         <v>1.02</v>
       </c>
       <c r="B52" t="n">
-        <v>2501.01</v>
+        <v>2517.25</v>
       </c>
       <c r="C52" t="n">
         <v>0.01275</v>
       </c>
       <c r="D52" t="n">
-        <v>35.72871428571429</v>
+        <v>35.96071428571429</v>
       </c>
     </row>
     <row r="53">
@@ -4203,13 +4147,13 @@
         <v>1.04</v>
       </c>
       <c r="B53" t="n">
-        <v>2430.09</v>
+        <v>2559.53</v>
       </c>
       <c r="C53" t="n">
         <v>0.013</v>
       </c>
       <c r="D53" t="n">
-        <v>34.71557142857143</v>
+        <v>36.56471428571429</v>
       </c>
     </row>
     <row r="54">
@@ -4217,13 +4161,13 @@
         <v>1.06</v>
       </c>
       <c r="B54" t="n">
-        <v>2181.74</v>
+        <v>2586.77</v>
       </c>
       <c r="C54" t="n">
         <v>0.01325</v>
       </c>
       <c r="D54" t="n">
-        <v>31.16771428571428</v>
+        <v>36.95385714285715</v>
       </c>
     </row>
     <row r="55">
@@ -4231,13 +4175,13 @@
         <v>1.08</v>
       </c>
       <c r="B55" t="n">
-        <v>1742.11</v>
+        <v>2577.88</v>
       </c>
       <c r="C55" t="n">
         <v>0.0135</v>
       </c>
       <c r="D55" t="n">
-        <v>24.88728571428571</v>
+        <v>36.82685714285714</v>
       </c>
     </row>
     <row r="56">
@@ -4245,13 +4189,13 @@
         <v>1.1</v>
       </c>
       <c r="B56" t="n">
-        <v>1561.52</v>
+        <v>2532.92</v>
       </c>
       <c r="C56" t="n">
         <v>0.01375</v>
       </c>
       <c r="D56" t="n">
-        <v>22.30742857142857</v>
+        <v>36.18457142857143</v>
       </c>
     </row>
     <row r="57">
@@ -4259,13 +4203,13 @@
         <v>1.12</v>
       </c>
       <c r="B57" t="n">
-        <v>1359.49</v>
+        <v>2434.46</v>
       </c>
       <c r="C57" t="n">
         <v>0.014</v>
       </c>
       <c r="D57" t="n">
-        <v>19.42128571428572</v>
+        <v>34.778</v>
       </c>
     </row>
     <row r="58">
@@ -4273,13 +4217,13 @@
         <v>1.14</v>
       </c>
       <c r="B58" t="n">
-        <v>1154.94</v>
+        <v>2031.37</v>
       </c>
       <c r="C58" t="n">
         <v>0.01425</v>
       </c>
       <c r="D58" t="n">
-        <v>16.49914285714286</v>
+        <v>29.01957142857143</v>
       </c>
     </row>
     <row r="59">
@@ -4287,13 +4231,13 @@
         <v>1.16</v>
       </c>
       <c r="B59" t="n">
-        <v>1029.63</v>
+        <v>1740.99</v>
       </c>
       <c r="C59" t="n">
         <v>0.0145</v>
       </c>
       <c r="D59" t="n">
-        <v>14.709</v>
+        <v>24.87128571428572</v>
       </c>
     </row>
     <row r="60">
@@ -4301,13 +4245,13 @@
         <v>1.18</v>
       </c>
       <c r="B60" t="n">
-        <v>879.798</v>
+        <v>1531.06</v>
       </c>
       <c r="C60" t="n">
         <v>0.01475</v>
       </c>
       <c r="D60" t="n">
-        <v>12.56854285714286</v>
+        <v>21.87228571428571</v>
       </c>
     </row>
     <row r="61">
@@ -4315,13 +4259,13 @@
         <v>1.2</v>
       </c>
       <c r="B61" t="n">
-        <v>693.681</v>
+        <v>1358.59</v>
       </c>
       <c r="C61" t="n">
         <v>0.015</v>
       </c>
       <c r="D61" t="n">
-        <v>9.909728571428571</v>
+        <v>19.40842857142857</v>
       </c>
     </row>
     <row r="62">
@@ -4329,13 +4273,13 @@
         <v>1.22</v>
       </c>
       <c r="B62" t="n">
-        <v>542.357</v>
+        <v>1116.75</v>
       </c>
       <c r="C62" t="n">
         <v>0.01525</v>
       </c>
       <c r="D62" t="n">
-        <v>7.747957142857143</v>
+        <v>15.95357142857143</v>
       </c>
     </row>
     <row r="63">
@@ -4343,13 +4287,13 @@
         <v>1.24</v>
       </c>
       <c r="B63" t="n">
-        <v>443.004</v>
+        <v>907.436</v>
       </c>
       <c r="C63" t="n">
         <v>0.0155</v>
       </c>
       <c r="D63" t="n">
-        <v>6.328628571428571</v>
+        <v>12.96337142857143</v>
       </c>
     </row>
     <row r="64">
@@ -4357,13 +4301,13 @@
         <v>1.26</v>
       </c>
       <c r="B64" t="n">
-        <v>351.031</v>
+        <v>698.0700000000001</v>
       </c>
       <c r="C64" t="n">
         <v>0.01575</v>
       </c>
       <c r="D64" t="n">
-        <v>5.014728571428572</v>
+        <v>9.972428571428573</v>
       </c>
     </row>
     <row r="65">
@@ -4371,13 +4315,13 @@
         <v>1.28</v>
       </c>
       <c r="B65" t="n">
-        <v>196.745</v>
+        <v>547.635</v>
       </c>
       <c r="C65" t="n">
         <v>0.016</v>
       </c>
       <c r="D65" t="n">
-        <v>2.810642857142857</v>
+        <v>7.823357142857143</v>
       </c>
     </row>
     <row r="66">
@@ -4385,13 +4329,13 @@
         <v>1.3</v>
       </c>
       <c r="B66" t="n">
-        <v>137.557</v>
+        <v>424.59</v>
       </c>
       <c r="C66" t="n">
         <v>0.01625</v>
       </c>
       <c r="D66" t="n">
-        <v>1.9651</v>
+        <v>6.065571428571428</v>
       </c>
     </row>
     <row r="67">
@@ -4399,13 +4343,13 @@
         <v>1.32</v>
       </c>
       <c r="B67" t="n">
-        <v>110.336</v>
+        <v>278.218</v>
       </c>
       <c r="C67" t="n">
         <v>0.0165</v>
       </c>
       <c r="D67" t="n">
-        <v>1.576228571428571</v>
+        <v>3.974542857142858</v>
       </c>
     </row>
     <row r="68">
@@ -4413,13 +4357,13 @@
         <v>1.34</v>
       </c>
       <c r="B68" t="n">
-        <v>102.943</v>
+        <v>188.481</v>
       </c>
       <c r="C68" t="n">
         <v>0.01675</v>
       </c>
       <c r="D68" t="n">
-        <v>1.470614285714286</v>
+        <v>2.692585714285714</v>
       </c>
     </row>
     <row r="69">
@@ -4427,13 +4371,13 @@
         <v>1.36</v>
       </c>
       <c r="B69" t="n">
-        <v>99.5149</v>
+        <v>119.939</v>
       </c>
       <c r="C69" t="n">
         <v>0.017</v>
       </c>
       <c r="D69" t="n">
-        <v>1.421641428571429</v>
+        <v>1.713414285714286</v>
       </c>
     </row>
     <row r="70">
@@ -4441,13 +4385,13 @@
         <v>1.38</v>
       </c>
       <c r="B70" t="n">
-        <v>95.7654</v>
+        <v>95.5703</v>
       </c>
       <c r="C70" t="n">
         <v>0.01725</v>
       </c>
       <c r="D70" t="n">
-        <v>1.368077142857143</v>
+        <v>1.36529</v>
       </c>
     </row>
     <row r="71">
@@ -4455,13 +4399,13 @@
         <v>1.4</v>
       </c>
       <c r="B71" t="n">
-        <v>93.06100000000001</v>
+        <v>74.61799999999999</v>
       </c>
       <c r="C71" t="n">
         <v>0.0175</v>
       </c>
       <c r="D71" t="n">
-        <v>1.329442857142857</v>
+        <v>1.065971428571429</v>
       </c>
     </row>
     <row r="72">
@@ -4469,13 +4413,13 @@
         <v>1.42</v>
       </c>
       <c r="B72" t="n">
-        <v>90.6729</v>
+        <v>67.5378</v>
       </c>
       <c r="C72" t="n">
         <v>0.01775</v>
       </c>
       <c r="D72" t="n">
-        <v>1.295327142857143</v>
+        <v>0.9648257142857144</v>
       </c>
     </row>
     <row r="73">
@@ -4483,13 +4427,13 @@
         <v>1.44</v>
       </c>
       <c r="B73" t="n">
-        <v>88.7919</v>
+        <v>63.1889</v>
       </c>
       <c r="C73" t="n">
         <v>0.018</v>
       </c>
       <c r="D73" t="n">
-        <v>1.268455714285714</v>
+        <v>0.9026985714285714</v>
       </c>
     </row>
     <row r="74">
@@ -4497,13 +4441,13 @@
         <v>1.46</v>
       </c>
       <c r="B74" t="n">
-        <v>88.4072</v>
+        <v>58.7321</v>
       </c>
       <c r="C74" t="n">
         <v>0.01825</v>
       </c>
       <c r="D74" t="n">
-        <v>1.26296</v>
+        <v>0.8390300000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4511,13 +4455,13 @@
         <v>1.48</v>
       </c>
       <c r="B75" t="n">
-        <v>88.3408</v>
+        <v>56.0952</v>
       </c>
       <c r="C75" t="n">
         <v>0.0185</v>
       </c>
       <c r="D75" t="n">
-        <v>1.262011428571429</v>
+        <v>0.80136</v>
       </c>
     </row>
     <row r="76">
@@ -4525,13 +4469,13 @@
         <v>1.5</v>
       </c>
       <c r="B76" t="n">
-        <v>88.6876</v>
+        <v>54.0815</v>
       </c>
       <c r="C76" t="n">
         <v>0.01875</v>
       </c>
       <c r="D76" t="n">
-        <v>1.266965714285714</v>
+        <v>0.7725928571428571</v>
       </c>
     </row>
     <row r="77">
@@ -4539,13 +4483,13 @@
         <v>1.52</v>
       </c>
       <c r="B77" t="n">
-        <v>89.3823</v>
+        <v>52.8379</v>
       </c>
       <c r="C77" t="n">
         <v>0.019</v>
       </c>
       <c r="D77" t="n">
-        <v>1.27689</v>
+        <v>0.7548271428571428</v>
       </c>
     </row>
     <row r="78">
@@ -4553,13 +4497,13 @@
         <v>1.54</v>
       </c>
       <c r="B78" t="n">
-        <v>89.9931</v>
+        <v>51.8379</v>
       </c>
       <c r="C78" t="n">
         <v>0.01925</v>
       </c>
       <c r="D78" t="n">
-        <v>1.285615714285714</v>
+        <v>0.7405414285714286</v>
       </c>
     </row>
     <row r="79">
@@ -4567,13 +4511,13 @@
         <v>1.56</v>
       </c>
       <c r="B79" t="n">
-        <v>90.5793</v>
+        <v>51.4276</v>
       </c>
       <c r="C79" t="n">
         <v>0.0195</v>
       </c>
       <c r="D79" t="n">
-        <v>1.29399</v>
+        <v>0.73468</v>
       </c>
     </row>
     <row r="80">
@@ -4581,13 +4525,13 @@
         <v>1.58</v>
       </c>
       <c r="B80" t="n">
-        <v>90.4117</v>
+        <v>51.183</v>
       </c>
       <c r="C80" t="n">
         <v>0.01975</v>
       </c>
       <c r="D80" t="n">
-        <v>1.291595714285714</v>
+        <v>0.7311857142857143</v>
       </c>
     </row>
     <row r="81">
@@ -4595,13 +4539,13 @@
         <v>1.6</v>
       </c>
       <c r="B81" t="n">
-        <v>91.1948</v>
+        <v>50.9916</v>
       </c>
       <c r="C81" t="n">
         <v>0.02</v>
       </c>
       <c r="D81" t="n">
-        <v>1.302782857142857</v>
+        <v>0.7284514285714285</v>
       </c>
     </row>
     <row r="82">
@@ -4609,13 +4553,13 @@
         <v>1.62</v>
       </c>
       <c r="B82" t="n">
-        <v>92.2403</v>
+        <v>51.0407</v>
       </c>
       <c r="C82" t="n">
         <v>0.02025</v>
       </c>
       <c r="D82" t="n">
-        <v>1.317718571428572</v>
+        <v>0.7291528571428572</v>
       </c>
     </row>
     <row r="83">
@@ -4623,13 +4567,13 @@
         <v>1.64</v>
       </c>
       <c r="B83" t="n">
-        <v>93.02249999999999</v>
+        <v>50.9764</v>
       </c>
       <c r="C83" t="n">
         <v>0.0205</v>
       </c>
       <c r="D83" t="n">
-        <v>1.328892857142857</v>
+        <v>0.7282342857142857</v>
       </c>
     </row>
     <row r="84">
@@ -4637,13 +4581,13 @@
         <v>1.66</v>
       </c>
       <c r="B84" t="n">
-        <v>93.5348</v>
+        <v>50.9729</v>
       </c>
       <c r="C84" t="n">
         <v>0.02075</v>
       </c>
       <c r="D84" t="n">
-        <v>1.336211428571429</v>
+        <v>0.7281842857142857</v>
       </c>
     </row>
     <row r="85">
@@ -4651,13 +4595,13 @@
         <v>1.68</v>
       </c>
       <c r="B85" t="n">
-        <v>93.4371</v>
+        <v>51.0996</v>
       </c>
       <c r="C85" t="n">
         <v>0.021</v>
       </c>
       <c r="D85" t="n">
-        <v>1.334815714285714</v>
+        <v>0.7299942857142857</v>
       </c>
     </row>
     <row r="86">
@@ -4665,13 +4609,13 @@
         <v>1.7</v>
       </c>
       <c r="B86" t="n">
-        <v>92.6104</v>
+        <v>50.9682</v>
       </c>
       <c r="C86" t="n">
         <v>0.02125</v>
       </c>
       <c r="D86" t="n">
-        <v>1.323005714285714</v>
+        <v>0.7281171428571429</v>
       </c>
     </row>
     <row r="87">
@@ -4679,13 +4623,13 @@
         <v>1.72</v>
       </c>
       <c r="B87" t="n">
-        <v>91.75449999999999</v>
+        <v>50.7135</v>
       </c>
       <c r="C87" t="n">
         <v>0.0215</v>
       </c>
       <c r="D87" t="n">
-        <v>1.310778571428571</v>
+        <v>0.7244785714285715</v>
       </c>
     </row>
     <row r="88">
@@ -4693,13 +4637,13 @@
         <v>1.74</v>
       </c>
       <c r="B88" t="n">
-        <v>91.6053</v>
+        <v>50.5393</v>
       </c>
       <c r="C88" t="n">
         <v>0.02175</v>
       </c>
       <c r="D88" t="n">
-        <v>1.308647142857143</v>
+        <v>0.7219899999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4707,13 +4651,13 @@
         <v>1.76</v>
       </c>
       <c r="B89" t="n">
-        <v>91.9483</v>
+        <v>49.3904</v>
       </c>
       <c r="C89" t="n">
         <v>0.022</v>
       </c>
       <c r="D89" t="n">
-        <v>1.313547142857143</v>
+        <v>0.7055771428571429</v>
       </c>
     </row>
     <row r="90">
@@ -4721,13 +4665,13 @@
         <v>1.78</v>
       </c>
       <c r="B90" t="n">
-        <v>92.1317</v>
+        <v>48.3533</v>
       </c>
       <c r="C90" t="n">
         <v>0.02225</v>
       </c>
       <c r="D90" t="n">
-        <v>1.316167142857143</v>
+        <v>0.6907614285714285</v>
       </c>
     </row>
     <row r="91">
@@ -4735,13 +4679,13 @@
         <v>1.8</v>
       </c>
       <c r="B91" t="n">
-        <v>92.0172</v>
+        <v>46.9098</v>
       </c>
       <c r="C91" t="n">
         <v>0.0225</v>
       </c>
       <c r="D91" t="n">
-        <v>1.314531428571429</v>
+        <v>0.67014</v>
       </c>
     </row>
     <row r="92">
@@ -4749,13 +4693,13 @@
         <v>1.82</v>
       </c>
       <c r="B92" t="n">
-        <v>90.5324</v>
+        <v>45.1892</v>
       </c>
       <c r="C92" t="n">
         <v>0.02275</v>
       </c>
       <c r="D92" t="n">
-        <v>1.29332</v>
+        <v>0.64556</v>
       </c>
     </row>
     <row r="93">
@@ -4763,13 +4707,13 @@
         <v>1.84</v>
       </c>
       <c r="B93" t="n">
-        <v>84.48999999999999</v>
+        <v>44.4256</v>
       </c>
       <c r="C93" t="n">
         <v>0.023</v>
       </c>
       <c r="D93" t="n">
-        <v>1.207</v>
+        <v>0.6346514285714286</v>
       </c>
     </row>
     <row r="94">
@@ -4777,13 +4721,13 @@
         <v>1.86</v>
       </c>
       <c r="B94" t="n">
-        <v>73.5252</v>
+        <v>43.8193</v>
       </c>
       <c r="C94" t="n">
         <v>0.02325</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05036</v>
+        <v>0.6259899999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4791,13 +4735,13 @@
         <v>1.88</v>
       </c>
       <c r="B95" t="n">
-        <v>58.2428</v>
+        <v>43.3174</v>
       </c>
       <c r="C95" t="n">
         <v>0.0235</v>
       </c>
       <c r="D95" t="n">
-        <v>0.83204</v>
+        <v>0.61882</v>
       </c>
     </row>
     <row r="96">
@@ -4805,13 +4749,13 @@
         <v>1.9</v>
       </c>
       <c r="B96" t="n">
-        <v>47.6575</v>
+        <v>42.92</v>
       </c>
       <c r="C96" t="n">
         <v>0.02375</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6808214285714286</v>
+        <v>0.6131428571428572</v>
       </c>
     </row>
     <row r="97">
@@ -4819,13 +4763,13 @@
         <v>1.92</v>
       </c>
       <c r="B97" t="n">
-        <v>43.7399</v>
+        <v>42.7935</v>
       </c>
       <c r="C97" t="n">
         <v>0.024</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6248557142857143</v>
+        <v>0.6113357142857143</v>
       </c>
     </row>
     <row r="98">
@@ -4833,13 +4777,13 @@
         <v>1.94</v>
       </c>
       <c r="B98" t="n">
-        <v>40.4435</v>
+        <v>41.7157</v>
       </c>
       <c r="C98" t="n">
         <v>0.02425</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5777642857142857</v>
+        <v>0.5959385714285714</v>
       </c>
     </row>
     <row r="99">
@@ -4847,13 +4791,13 @@
         <v>1.96</v>
       </c>
       <c r="B99" t="n">
-        <v>38.8187</v>
+        <v>39.7784</v>
       </c>
       <c r="C99" t="n">
         <v>0.0245</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5545528571428572</v>
+        <v>0.5682628571428571</v>
       </c>
     </row>
     <row r="100">
@@ -4861,13 +4805,13 @@
         <v>1.98</v>
       </c>
       <c r="B100" t="n">
-        <v>37.3807</v>
+        <v>38.6168</v>
       </c>
       <c r="C100" t="n">
         <v>0.02475</v>
       </c>
       <c r="D100" t="n">
-        <v>0.53401</v>
+        <v>0.5516685714285714</v>
       </c>
     </row>
     <row r="101">
@@ -4875,13 +4819,13 @@
         <v>1.99</v>
       </c>
       <c r="B101" t="n">
-        <v>36.907</v>
+        <v>38.2293</v>
       </c>
       <c r="C101" t="n">
         <v>0.024875</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5272428571428571</v>
+        <v>0.5461328571428572</v>
       </c>
     </row>
     <row r="102">
@@ -4889,55 +4833,27 @@
         <v>1.995</v>
       </c>
       <c r="B102" t="n">
-        <v>36.4852</v>
+        <v>37.609</v>
       </c>
       <c r="C102" t="n">
         <v>0.0249375</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5212171428571428</v>
+        <v>0.5372714285714286</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.997</v>
+        <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>36.0422</v>
+        <v>34.3874</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0249625</v>
+        <v>0.025</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5148885714285715</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1.9985</v>
-      </c>
-      <c r="B104" t="n">
-        <v>35.1003</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.02498125</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.5014328571428571</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>2</v>
-      </c>
-      <c r="B105" t="n">
-        <v>34.4212</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.4917314285714285</v>
+        <v>0.4912485714285714</v>
       </c>
     </row>
   </sheetData>
@@ -4983,7 +4899,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>7\kasa=1.3\thickness=1.58\7_kasa2.3_th1.58.csv</t>
+          <t>7\kasa=1.3\thickness=1.58\7_kasa1.3_th1.58.csv</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6418,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>7\kasa=1.3\thickness=1.73\7_kasa2.3_th1.73.csv</t>
+          <t>7\kasa=1.3\thickness=1.73\7_kasa1.3_th1.73.csv</t>
         </is>
       </c>
     </row>
@@ -6511,13 +6427,13 @@
         <v>0.02</v>
       </c>
       <c r="B2" t="n">
-        <v>53.51</v>
+        <v>56.6853</v>
       </c>
       <c r="C2" t="n">
         <v>0.00025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7644285714285713</v>
+        <v>0.80979</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6525,7 +6441,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36.32128571428571</v>
+        <v>37.52528571428572</v>
       </c>
     </row>
     <row r="3">
@@ -6533,13 +6449,13 @@
         <v>0.04</v>
       </c>
       <c r="B3" t="n">
-        <v>107.02</v>
+        <v>113.371</v>
       </c>
       <c r="C3" t="n">
         <v>0.0005</v>
       </c>
       <c r="D3" t="n">
-        <v>1.528857142857143</v>
+        <v>1.619585714285714</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6547,7 +6463,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3057.498181818181</v>
+        <v>3239.156813852814</v>
       </c>
     </row>
     <row r="4">
@@ -6555,13 +6471,13 @@
         <v>0.06</v>
       </c>
       <c r="B4" t="n">
-        <v>160.53</v>
+        <v>170.056</v>
       </c>
       <c r="C4" t="n">
         <v>0.00075</v>
       </c>
       <c r="D4" t="n">
-        <v>2.293285714285714</v>
+        <v>2.429371428571429</v>
       </c>
     </row>
     <row r="5">
@@ -6569,13 +6485,13 @@
         <v>0.08</v>
       </c>
       <c r="B5" t="n">
-        <v>214.04</v>
+        <v>226.741</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
       </c>
       <c r="D5" t="n">
-        <v>3.057714285714285</v>
+        <v>3.239157142857143</v>
       </c>
     </row>
     <row r="6">
@@ -6583,13 +6499,13 @@
         <v>0.1</v>
       </c>
       <c r="B6" t="n">
-        <v>267.55</v>
+        <v>283.426</v>
       </c>
       <c r="C6" t="n">
         <v>0.00125</v>
       </c>
       <c r="D6" t="n">
-        <v>3.822142857142858</v>
+        <v>4.048942857142857</v>
       </c>
     </row>
     <row r="7">
@@ -6597,13 +6513,13 @@
         <v>0.12</v>
       </c>
       <c r="B7" t="n">
-        <v>321.06</v>
+        <v>340.112</v>
       </c>
       <c r="C7" t="n">
         <v>0.0015</v>
       </c>
       <c r="D7" t="n">
-        <v>4.586571428571428</v>
+        <v>4.858742857142857</v>
       </c>
     </row>
     <row r="8">
@@ -6611,13 +6527,13 @@
         <v>0.14</v>
       </c>
       <c r="B8" t="n">
-        <v>374.57</v>
+        <v>396.797</v>
       </c>
       <c r="C8" t="n">
         <v>0.00175</v>
       </c>
       <c r="D8" t="n">
-        <v>5.351</v>
+        <v>5.668528571428571</v>
       </c>
     </row>
     <row r="9">
@@ -6625,13 +6541,13 @@
         <v>0.16</v>
       </c>
       <c r="B9" t="n">
-        <v>428.077</v>
+        <v>453.482</v>
       </c>
       <c r="C9" t="n">
         <v>0.002</v>
       </c>
       <c r="D9" t="n">
-        <v>6.115385714285714</v>
+        <v>6.478314285714286</v>
       </c>
     </row>
     <row r="10">
@@ -6639,13 +6555,13 @@
         <v>0.18</v>
       </c>
       <c r="B10" t="n">
-        <v>481.575</v>
+        <v>510.167</v>
       </c>
       <c r="C10" t="n">
         <v>0.00225</v>
       </c>
       <c r="D10" t="n">
-        <v>6.879642857142857</v>
+        <v>7.2881</v>
       </c>
     </row>
     <row r="11">
@@ -6653,13 +6569,13 @@
         <v>0.2</v>
       </c>
       <c r="B11" t="n">
-        <v>535.044</v>
+        <v>566.853</v>
       </c>
       <c r="C11" t="n">
         <v>0.0025</v>
       </c>
       <c r="D11" t="n">
-        <v>7.643485714285714</v>
+        <v>8.097899999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6667,13 +6583,13 @@
         <v>0.22</v>
       </c>
       <c r="B12" t="n">
-        <v>588.442</v>
+        <v>623.538</v>
       </c>
       <c r="C12" t="n">
         <v>0.00275</v>
       </c>
       <c r="D12" t="n">
-        <v>8.406314285714286</v>
+        <v>8.907685714285714</v>
       </c>
     </row>
     <row r="13">
@@ -6681,13 +6597,13 @@
         <v>0.24</v>
       </c>
       <c r="B13" t="n">
-        <v>641.847</v>
+        <v>680.178</v>
       </c>
       <c r="C13" t="n">
         <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>9.169242857142857</v>
+        <v>9.716828571428572</v>
       </c>
     </row>
     <row r="14">
@@ -6695,13 +6611,13 @@
         <v>0.26</v>
       </c>
       <c r="B14" t="n">
-        <v>695.087</v>
+        <v>736.684</v>
       </c>
       <c r="C14" t="n">
         <v>0.00325</v>
       </c>
       <c r="D14" t="n">
-        <v>9.929814285714286</v>
+        <v>10.52405714285714</v>
       </c>
     </row>
     <row r="15">
@@ -6709,13 +6625,13 @@
         <v>0.28</v>
       </c>
       <c r="B15" t="n">
-        <v>748.194</v>
+        <v>792.919</v>
       </c>
       <c r="C15" t="n">
         <v>0.003500000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>10.68848571428571</v>
+        <v>11.32741428571429</v>
       </c>
     </row>
     <row r="16">
@@ -6723,13 +6639,13 @@
         <v>0.3</v>
       </c>
       <c r="B16" t="n">
-        <v>801.474</v>
+        <v>849.053</v>
       </c>
       <c r="C16" t="n">
         <v>0.003749999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>11.44962857142857</v>
+        <v>12.12932857142857</v>
       </c>
     </row>
     <row r="17">
@@ -6737,13 +6653,13 @@
         <v>0.32</v>
       </c>
       <c r="B17" t="n">
-        <v>854.8</v>
+        <v>905.203</v>
       </c>
       <c r="C17" t="n">
         <v>0.004</v>
       </c>
       <c r="D17" t="n">
-        <v>12.21142857142857</v>
+        <v>12.93147142857143</v>
       </c>
     </row>
     <row r="18">
@@ -6751,13 +6667,13 @@
         <v>0.34</v>
       </c>
       <c r="B18" t="n">
-        <v>908.032</v>
+        <v>961.4690000000001</v>
       </c>
       <c r="C18" t="n">
         <v>0.00425</v>
       </c>
       <c r="D18" t="n">
-        <v>12.97188571428572</v>
+        <v>13.73527142857143</v>
       </c>
     </row>
     <row r="19">
@@ -6765,13 +6681,13 @@
         <v>0.36</v>
       </c>
       <c r="B19" t="n">
-        <v>961.289</v>
+        <v>1017.75</v>
       </c>
       <c r="C19" t="n">
         <v>0.0045</v>
       </c>
       <c r="D19" t="n">
-        <v>13.7327</v>
+        <v>14.53928571428571</v>
       </c>
     </row>
     <row r="20">
@@ -6779,13 +6695,13 @@
         <v>0.38</v>
       </c>
       <c r="B20" t="n">
-        <v>1014.48</v>
+        <v>1074.12</v>
       </c>
       <c r="C20" t="n">
         <v>0.00475</v>
       </c>
       <c r="D20" t="n">
-        <v>14.49257142857143</v>
+        <v>15.34457142857143</v>
       </c>
     </row>
     <row r="21">
@@ -6793,13 +6709,13 @@
         <v>0.4</v>
       </c>
       <c r="B21" t="n">
-        <v>1067.69</v>
+        <v>1130.49</v>
       </c>
       <c r="C21" t="n">
         <v>0.005</v>
       </c>
       <c r="D21" t="n">
-        <v>15.25271428571429</v>
+        <v>16.14985714285714</v>
       </c>
     </row>
     <row r="22">
@@ -6807,13 +6723,13 @@
         <v>0.42</v>
       </c>
       <c r="B22" t="n">
-        <v>1120.81</v>
+        <v>1186.74</v>
       </c>
       <c r="C22" t="n">
         <v>0.00525</v>
       </c>
       <c r="D22" t="n">
-        <v>16.01157142857143</v>
+        <v>16.95342857142857</v>
       </c>
     </row>
     <row r="23">
@@ -6821,13 +6737,13 @@
         <v>0.44</v>
       </c>
       <c r="B23" t="n">
-        <v>1174.06</v>
+        <v>1243.01</v>
       </c>
       <c r="C23" t="n">
         <v>0.0055</v>
       </c>
       <c r="D23" t="n">
-        <v>16.77228571428572</v>
+        <v>17.75728571428571</v>
       </c>
     </row>
     <row r="24">
@@ -6835,13 +6751,13 @@
         <v>0.46</v>
       </c>
       <c r="B24" t="n">
-        <v>1227.18</v>
+        <v>1299.26</v>
       </c>
       <c r="C24" t="n">
         <v>0.00575</v>
       </c>
       <c r="D24" t="n">
-        <v>17.53114285714286</v>
+        <v>18.56085714285714</v>
       </c>
     </row>
     <row r="25">
@@ -6849,13 +6765,13 @@
         <v>0.48</v>
       </c>
       <c r="B25" t="n">
-        <v>1280.39</v>
+        <v>1355.63</v>
       </c>
       <c r="C25" t="n">
         <v>0.006</v>
       </c>
       <c r="D25" t="n">
-        <v>18.29128571428572</v>
+        <v>19.36614285714286</v>
       </c>
     </row>
     <row r="26">
@@ -6863,13 +6779,13 @@
         <v>0.5</v>
       </c>
       <c r="B26" t="n">
-        <v>1333.61</v>
+        <v>1411.9</v>
       </c>
       <c r="C26" t="n">
         <v>0.00625</v>
       </c>
       <c r="D26" t="n">
-        <v>19.05157142857143</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="27">
@@ -6877,13 +6793,13 @@
         <v>0.52</v>
       </c>
       <c r="B27" t="n">
-        <v>1386.79</v>
+        <v>1468.12</v>
       </c>
       <c r="C27" t="n">
         <v>0.006500000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>19.81128571428571</v>
+        <v>20.97314285714286</v>
       </c>
     </row>
     <row r="28">
@@ -6891,13 +6807,13 @@
         <v>0.54</v>
       </c>
       <c r="B28" t="n">
-        <v>1440.01</v>
+        <v>1524.31</v>
       </c>
       <c r="C28" t="n">
         <v>0.00675</v>
       </c>
       <c r="D28" t="n">
-        <v>20.57157142857143</v>
+        <v>21.77585714285714</v>
       </c>
     </row>
     <row r="29">
@@ -6905,13 +6821,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>1493.11</v>
+        <v>1580.52</v>
       </c>
       <c r="C29" t="n">
         <v>0.007000000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>21.33014285714286</v>
+        <v>22.57885714285714</v>
       </c>
     </row>
     <row r="30">
@@ -6919,13 +6835,13 @@
         <v>0.58</v>
       </c>
       <c r="B30" t="n">
-        <v>1546.24</v>
+        <v>1636.84</v>
       </c>
       <c r="C30" t="n">
         <v>0.00725</v>
       </c>
       <c r="D30" t="n">
-        <v>22.08914285714286</v>
+        <v>23.38342857142857</v>
       </c>
     </row>
     <row r="31">
@@ -6933,13 +6849,13 @@
         <v>0.6</v>
       </c>
       <c r="B31" t="n">
-        <v>1599.21</v>
+        <v>1692.84</v>
       </c>
       <c r="C31" t="n">
         <v>0.007499999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>22.84585714285714</v>
+        <v>24.18342857142857</v>
       </c>
     </row>
     <row r="32">
@@ -6947,13 +6863,13 @@
         <v>0.62</v>
       </c>
       <c r="B32" t="n">
-        <v>1652.06</v>
+        <v>1748.6</v>
       </c>
       <c r="C32" t="n">
         <v>0.00775</v>
       </c>
       <c r="D32" t="n">
-        <v>23.60085714285714</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="33">
@@ -6961,13 +6877,13 @@
         <v>0.64</v>
       </c>
       <c r="B33" t="n">
-        <v>1704.7</v>
+        <v>1804.41</v>
       </c>
       <c r="C33" t="n">
         <v>0.008</v>
       </c>
       <c r="D33" t="n">
-        <v>24.35285714285714</v>
+        <v>25.77728571428571</v>
       </c>
     </row>
     <row r="34">
@@ -6975,13 +6891,13 @@
         <v>0.66</v>
       </c>
       <c r="B34" t="n">
-        <v>1757.48</v>
+        <v>1860</v>
       </c>
       <c r="C34" t="n">
         <v>0.00825</v>
       </c>
       <c r="D34" t="n">
-        <v>25.10685714285714</v>
+        <v>26.57142857142857</v>
       </c>
     </row>
     <row r="35">
@@ -6989,13 +6905,13 @@
         <v>0.68</v>
       </c>
       <c r="B35" t="n">
-        <v>1810.14</v>
+        <v>1915.95</v>
       </c>
       <c r="C35" t="n">
         <v>0.008500000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>25.85914285714286</v>
+        <v>27.37071428571429</v>
       </c>
     </row>
     <row r="36">
@@ -7003,13 +6919,13 @@
         <v>0.7</v>
       </c>
       <c r="B36" t="n">
-        <v>1862.66</v>
+        <v>1971.47</v>
       </c>
       <c r="C36" t="n">
         <v>0.008749999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>26.60942857142857</v>
+        <v>28.16385714285714</v>
       </c>
     </row>
     <row r="37">
@@ -7017,13 +6933,13 @@
         <v>0.72</v>
       </c>
       <c r="B37" t="n">
-        <v>1915.07</v>
+        <v>2026.78</v>
       </c>
       <c r="C37" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>27.35814285714286</v>
+        <v>28.954</v>
       </c>
     </row>
     <row r="38">
@@ -7031,13 +6947,13 @@
         <v>0.74</v>
       </c>
       <c r="B38" t="n">
-        <v>1967.44</v>
+        <v>2081.96</v>
       </c>
       <c r="C38" t="n">
         <v>0.00925</v>
       </c>
       <c r="D38" t="n">
-        <v>28.10628571428571</v>
+        <v>29.74228571428571</v>
       </c>
     </row>
     <row r="39">
@@ -7045,13 +6961,13 @@
         <v>0.76</v>
       </c>
       <c r="B39" t="n">
-        <v>2019.76</v>
+        <v>2137.23</v>
       </c>
       <c r="C39" t="n">
         <v>0.0095</v>
       </c>
       <c r="D39" t="n">
-        <v>28.85371428571429</v>
+        <v>30.53185714285714</v>
       </c>
     </row>
     <row r="40">
@@ -7059,13 +6975,13 @@
         <v>0.78</v>
       </c>
       <c r="B40" t="n">
-        <v>2072.32</v>
+        <v>2192.48</v>
       </c>
       <c r="C40" t="n">
         <v>0.009750000000000002</v>
       </c>
       <c r="D40" t="n">
-        <v>29.60457142857143</v>
+        <v>31.32114285714286</v>
       </c>
     </row>
     <row r="41">
@@ -7073,13 +6989,13 @@
         <v>0.8</v>
       </c>
       <c r="B41" t="n">
-        <v>2124.48</v>
+        <v>2247.54</v>
       </c>
       <c r="C41" t="n">
         <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>30.34971428571428</v>
+        <v>32.10771428571429</v>
       </c>
     </row>
     <row r="42">
@@ -7087,13 +7003,13 @@
         <v>0.82</v>
       </c>
       <c r="B42" t="n">
-        <v>2176.58</v>
+        <v>2302.63</v>
       </c>
       <c r="C42" t="n">
         <v>0.01025</v>
       </c>
       <c r="D42" t="n">
-        <v>31.094</v>
+        <v>32.89471428571429</v>
       </c>
     </row>
     <row r="43">
@@ -7101,13 +7017,13 @@
         <v>0.84</v>
       </c>
       <c r="B43" t="n">
-        <v>2228.86</v>
+        <v>2357.32</v>
       </c>
       <c r="C43" t="n">
         <v>0.0105</v>
       </c>
       <c r="D43" t="n">
-        <v>31.84085714285715</v>
+        <v>33.676</v>
       </c>
     </row>
     <row r="44">
@@ -7115,13 +7031,13 @@
         <v>0.86</v>
       </c>
       <c r="B44" t="n">
-        <v>2281.01</v>
+        <v>2412.18</v>
       </c>
       <c r="C44" t="n">
         <v>0.01075</v>
       </c>
       <c r="D44" t="n">
-        <v>32.58585714285714</v>
+        <v>34.45971428571428</v>
       </c>
     </row>
     <row r="45">
@@ -7129,13 +7045,13 @@
         <v>0.88</v>
       </c>
       <c r="B45" t="n">
-        <v>2332.68</v>
+        <v>2467.45</v>
       </c>
       <c r="C45" t="n">
         <v>0.011</v>
       </c>
       <c r="D45" t="n">
-        <v>33.324</v>
+        <v>35.24928571428571</v>
       </c>
     </row>
     <row r="46">
@@ -7143,13 +7059,13 @@
         <v>0.9</v>
       </c>
       <c r="B46" t="n">
-        <v>2384.7</v>
+        <v>2522.17</v>
       </c>
       <c r="C46" t="n">
         <v>0.01125</v>
       </c>
       <c r="D46" t="n">
-        <v>34.06714285714285</v>
+        <v>36.031</v>
       </c>
     </row>
     <row r="47">
@@ -7157,13 +7073,13 @@
         <v>0.92</v>
       </c>
       <c r="B47" t="n">
-        <v>2436.07</v>
+        <v>2574.29</v>
       </c>
       <c r="C47" t="n">
         <v>0.0115</v>
       </c>
       <c r="D47" t="n">
-        <v>34.801</v>
+        <v>36.77557142857142</v>
       </c>
     </row>
     <row r="48">
@@ -7171,13 +7087,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>2485.14</v>
+        <v>2617.41</v>
       </c>
       <c r="C48" t="n">
         <v>0.01175</v>
       </c>
       <c r="D48" t="n">
-        <v>35.502</v>
+        <v>37.39157142857142</v>
       </c>
     </row>
     <row r="49">
@@ -7185,13 +7101,13 @@
         <v>0.96</v>
       </c>
       <c r="B49" t="n">
-        <v>2525.44</v>
+        <v>2626.77</v>
       </c>
       <c r="C49" t="n">
         <v>0.012</v>
       </c>
       <c r="D49" t="n">
-        <v>36.07771428571429</v>
+        <v>37.52528571428572</v>
       </c>
     </row>
     <row r="50">
@@ -7199,13 +7115,13 @@
         <v>0.98</v>
       </c>
       <c r="B50" t="n">
-        <v>2542.49</v>
+        <v>2585.94</v>
       </c>
       <c r="C50" t="n">
         <v>0.01225</v>
       </c>
       <c r="D50" t="n">
-        <v>36.32128571428571</v>
+        <v>36.942</v>
       </c>
     </row>
     <row r="51">
@@ -7213,13 +7129,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2536.67</v>
+        <v>2517.66</v>
       </c>
       <c r="C51" t="n">
         <v>0.0125</v>
       </c>
       <c r="D51" t="n">
-        <v>36.23814285714286</v>
+        <v>35.96657142857143</v>
       </c>
     </row>
     <row r="52">
@@ -7227,13 +7143,13 @@
         <v>1.02</v>
       </c>
       <c r="B52" t="n">
-        <v>2501.01</v>
+        <v>2253.05</v>
       </c>
       <c r="C52" t="n">
         <v>0.01275</v>
       </c>
       <c r="D52" t="n">
-        <v>35.72871428571429</v>
+        <v>32.18642857142857</v>
       </c>
     </row>
     <row r="53">
@@ -7241,13 +7157,13 @@
         <v>1.04</v>
       </c>
       <c r="B53" t="n">
-        <v>2430.09</v>
+        <v>2005.29</v>
       </c>
       <c r="C53" t="n">
         <v>0.013</v>
       </c>
       <c r="D53" t="n">
-        <v>34.71557142857143</v>
+        <v>28.647</v>
       </c>
     </row>
     <row r="54">
@@ -7255,13 +7171,13 @@
         <v>1.06</v>
       </c>
       <c r="B54" t="n">
-        <v>2181.74</v>
+        <v>1731.73</v>
       </c>
       <c r="C54" t="n">
         <v>0.01325</v>
       </c>
       <c r="D54" t="n">
-        <v>31.16771428571428</v>
+        <v>24.739</v>
       </c>
     </row>
     <row r="55">
@@ -7269,13 +7185,13 @@
         <v>1.08</v>
       </c>
       <c r="B55" t="n">
-        <v>1742.11</v>
+        <v>1554.28</v>
       </c>
       <c r="C55" t="n">
         <v>0.0135</v>
       </c>
       <c r="D55" t="n">
-        <v>24.88728571428571</v>
+        <v>22.204</v>
       </c>
     </row>
     <row r="56">
@@ -7283,13 +7199,13 @@
         <v>1.1</v>
       </c>
       <c r="B56" t="n">
-        <v>1561.52</v>
+        <v>1344.43</v>
       </c>
       <c r="C56" t="n">
         <v>0.01375</v>
       </c>
       <c r="D56" t="n">
-        <v>22.30742857142857</v>
+        <v>19.20614285714286</v>
       </c>
     </row>
     <row r="57">
@@ -7297,13 +7213,13 @@
         <v>1.12</v>
       </c>
       <c r="B57" t="n">
-        <v>1359.49</v>
+        <v>1197.77</v>
       </c>
       <c r="C57" t="n">
         <v>0.014</v>
       </c>
       <c r="D57" t="n">
-        <v>19.42128571428572</v>
+        <v>17.111</v>
       </c>
     </row>
     <row r="58">
@@ -7311,13 +7227,13 @@
         <v>1.14</v>
       </c>
       <c r="B58" t="n">
-        <v>1154.94</v>
+        <v>1075.02</v>
       </c>
       <c r="C58" t="n">
         <v>0.01425</v>
       </c>
       <c r="D58" t="n">
-        <v>16.49914285714286</v>
+        <v>15.35742857142857</v>
       </c>
     </row>
     <row r="59">
@@ -7325,13 +7241,13 @@
         <v>1.16</v>
       </c>
       <c r="B59" t="n">
-        <v>1029.63</v>
+        <v>988.804</v>
       </c>
       <c r="C59" t="n">
         <v>0.0145</v>
       </c>
       <c r="D59" t="n">
-        <v>14.709</v>
+        <v>14.12577142857143</v>
       </c>
     </row>
     <row r="60">
@@ -7339,13 +7255,13 @@
         <v>1.18</v>
       </c>
       <c r="B60" t="n">
-        <v>879.798</v>
+        <v>887.049</v>
       </c>
       <c r="C60" t="n">
         <v>0.01475</v>
       </c>
       <c r="D60" t="n">
-        <v>12.56854285714286</v>
+        <v>12.67212857142857</v>
       </c>
     </row>
     <row r="61">
@@ -7353,13 +7269,13 @@
         <v>1.2</v>
       </c>
       <c r="B61" t="n">
-        <v>693.681</v>
+        <v>730.23</v>
       </c>
       <c r="C61" t="n">
         <v>0.015</v>
       </c>
       <c r="D61" t="n">
-        <v>9.909728571428571</v>
+        <v>10.43185714285714</v>
       </c>
     </row>
     <row r="62">
@@ -7367,13 +7283,13 @@
         <v>1.22</v>
       </c>
       <c r="B62" t="n">
-        <v>542.357</v>
+        <v>570.89</v>
       </c>
       <c r="C62" t="n">
         <v>0.01525</v>
       </c>
       <c r="D62" t="n">
-        <v>7.747957142857143</v>
+        <v>8.155571428571429</v>
       </c>
     </row>
     <row r="63">
@@ -7381,13 +7297,13 @@
         <v>1.24</v>
       </c>
       <c r="B63" t="n">
-        <v>443.004</v>
+        <v>503.237</v>
       </c>
       <c r="C63" t="n">
         <v>0.0155</v>
       </c>
       <c r="D63" t="n">
-        <v>6.328628571428571</v>
+        <v>7.189100000000001</v>
       </c>
     </row>
     <row r="64">
@@ -7395,13 +7311,13 @@
         <v>1.26</v>
       </c>
       <c r="B64" t="n">
-        <v>351.031</v>
+        <v>408.12</v>
       </c>
       <c r="C64" t="n">
         <v>0.01575</v>
       </c>
       <c r="D64" t="n">
-        <v>5.014728571428572</v>
+        <v>5.830285714285714</v>
       </c>
     </row>
     <row r="65">
@@ -7409,13 +7325,13 @@
         <v>1.28</v>
       </c>
       <c r="B65" t="n">
-        <v>196.745</v>
+        <v>327.674</v>
       </c>
       <c r="C65" t="n">
         <v>0.016</v>
       </c>
       <c r="D65" t="n">
-        <v>2.810642857142857</v>
+        <v>4.681057142857142</v>
       </c>
     </row>
     <row r="66">
@@ -7423,13 +7339,13 @@
         <v>1.3</v>
       </c>
       <c r="B66" t="n">
-        <v>137.557</v>
+        <v>281.922</v>
       </c>
       <c r="C66" t="n">
         <v>0.01625</v>
       </c>
       <c r="D66" t="n">
-        <v>1.9651</v>
+        <v>4.027457142857143</v>
       </c>
     </row>
     <row r="67">
@@ -7437,13 +7353,13 @@
         <v>1.32</v>
       </c>
       <c r="B67" t="n">
-        <v>110.336</v>
+        <v>186.83</v>
       </c>
       <c r="C67" t="n">
         <v>0.0165</v>
       </c>
       <c r="D67" t="n">
-        <v>1.576228571428571</v>
+        <v>2.669</v>
       </c>
     </row>
     <row r="68">
@@ -7451,13 +7367,13 @@
         <v>1.34</v>
       </c>
       <c r="B68" t="n">
-        <v>102.943</v>
+        <v>111.232</v>
       </c>
       <c r="C68" t="n">
         <v>0.01675</v>
       </c>
       <c r="D68" t="n">
-        <v>1.470614285714286</v>
+        <v>1.589028571428571</v>
       </c>
     </row>
     <row r="69">
@@ -7465,13 +7381,13 @@
         <v>1.36</v>
       </c>
       <c r="B69" t="n">
-        <v>99.5149</v>
+        <v>81.727</v>
       </c>
       <c r="C69" t="n">
         <v>0.017</v>
       </c>
       <c r="D69" t="n">
-        <v>1.421641428571429</v>
+        <v>1.167528571428571</v>
       </c>
     </row>
     <row r="70">
@@ -7479,13 +7395,13 @@
         <v>1.38</v>
       </c>
       <c r="B70" t="n">
-        <v>95.7654</v>
+        <v>72.2051</v>
       </c>
       <c r="C70" t="n">
         <v>0.01725</v>
       </c>
       <c r="D70" t="n">
-        <v>1.368077142857143</v>
+        <v>1.031501428571429</v>
       </c>
     </row>
     <row r="71">
@@ -7493,13 +7409,13 @@
         <v>1.4</v>
       </c>
       <c r="B71" t="n">
-        <v>93.06100000000001</v>
+        <v>66.42059999999999</v>
       </c>
       <c r="C71" t="n">
         <v>0.0175</v>
       </c>
       <c r="D71" t="n">
-        <v>1.329442857142857</v>
+        <v>0.9488657142857142</v>
       </c>
     </row>
     <row r="72">
@@ -7507,13 +7423,13 @@
         <v>1.42</v>
       </c>
       <c r="B72" t="n">
-        <v>90.6729</v>
+        <v>63.4015</v>
       </c>
       <c r="C72" t="n">
         <v>0.01775</v>
       </c>
       <c r="D72" t="n">
-        <v>1.295327142857143</v>
+        <v>0.9057357142857143</v>
       </c>
     </row>
     <row r="73">
@@ -7521,13 +7437,13 @@
         <v>1.44</v>
       </c>
       <c r="B73" t="n">
-        <v>88.7919</v>
+        <v>60.7286</v>
       </c>
       <c r="C73" t="n">
         <v>0.018</v>
       </c>
       <c r="D73" t="n">
-        <v>1.268455714285714</v>
+        <v>0.8675514285714285</v>
       </c>
     </row>
     <row r="74">
@@ -7535,13 +7451,13 @@
         <v>1.46</v>
       </c>
       <c r="B74" t="n">
-        <v>88.4072</v>
+        <v>56.7231</v>
       </c>
       <c r="C74" t="n">
         <v>0.01825</v>
       </c>
       <c r="D74" t="n">
-        <v>1.26296</v>
+        <v>0.81033</v>
       </c>
     </row>
     <row r="75">
@@ -7549,13 +7465,13 @@
         <v>1.48</v>
       </c>
       <c r="B75" t="n">
-        <v>88.3408</v>
+        <v>54.5276</v>
       </c>
       <c r="C75" t="n">
         <v>0.0185</v>
       </c>
       <c r="D75" t="n">
-        <v>1.262011428571429</v>
+        <v>0.7789657142857143</v>
       </c>
     </row>
     <row r="76">
@@ -7563,13 +7479,13 @@
         <v>1.5</v>
       </c>
       <c r="B76" t="n">
-        <v>88.6876</v>
+        <v>52.1175</v>
       </c>
       <c r="C76" t="n">
         <v>0.01875</v>
       </c>
       <c r="D76" t="n">
-        <v>1.266965714285714</v>
+        <v>0.7445357142857143</v>
       </c>
     </row>
     <row r="77">
@@ -7577,13 +7493,13 @@
         <v>1.52</v>
       </c>
       <c r="B77" t="n">
-        <v>89.3823</v>
+        <v>51.308</v>
       </c>
       <c r="C77" t="n">
         <v>0.019</v>
       </c>
       <c r="D77" t="n">
-        <v>1.27689</v>
+        <v>0.7329714285714286</v>
       </c>
     </row>
     <row r="78">
@@ -7591,13 +7507,13 @@
         <v>1.54</v>
       </c>
       <c r="B78" t="n">
-        <v>89.9931</v>
+        <v>50.7273</v>
       </c>
       <c r="C78" t="n">
         <v>0.01925</v>
       </c>
       <c r="D78" t="n">
-        <v>1.285615714285714</v>
+        <v>0.7246757142857143</v>
       </c>
     </row>
     <row r="79">
@@ -7605,13 +7521,13 @@
         <v>1.56</v>
       </c>
       <c r="B79" t="n">
-        <v>90.5793</v>
+        <v>50.1563</v>
       </c>
       <c r="C79" t="n">
         <v>0.0195</v>
       </c>
       <c r="D79" t="n">
-        <v>1.29399</v>
+        <v>0.7165185714285714</v>
       </c>
     </row>
     <row r="80">
@@ -7619,13 +7535,13 @@
         <v>1.58</v>
       </c>
       <c r="B80" t="n">
-        <v>90.4117</v>
+        <v>50.0984</v>
       </c>
       <c r="C80" t="n">
         <v>0.01975</v>
       </c>
       <c r="D80" t="n">
-        <v>1.291595714285714</v>
+        <v>0.7156914285714285</v>
       </c>
     </row>
     <row r="81">
@@ -7633,13 +7549,13 @@
         <v>1.6</v>
       </c>
       <c r="B81" t="n">
-        <v>91.1948</v>
+        <v>49.9889</v>
       </c>
       <c r="C81" t="n">
         <v>0.02</v>
       </c>
       <c r="D81" t="n">
-        <v>1.302782857142857</v>
+        <v>0.7141271428571428</v>
       </c>
     </row>
     <row r="82">
@@ -7647,13 +7563,13 @@
         <v>1.62</v>
       </c>
       <c r="B82" t="n">
-        <v>92.2403</v>
+        <v>49.5348</v>
       </c>
       <c r="C82" t="n">
         <v>0.02025</v>
       </c>
       <c r="D82" t="n">
-        <v>1.317718571428572</v>
+        <v>0.7076399999999999</v>
       </c>
     </row>
     <row r="83">
@@ -7661,13 +7577,13 @@
         <v>1.64</v>
       </c>
       <c r="B83" t="n">
-        <v>93.02249999999999</v>
+        <v>49.0026</v>
       </c>
       <c r="C83" t="n">
         <v>0.0205</v>
       </c>
       <c r="D83" t="n">
-        <v>1.328892857142857</v>
+        <v>0.7000371428571429</v>
       </c>
     </row>
     <row r="84">
@@ -7675,13 +7591,13 @@
         <v>1.66</v>
       </c>
       <c r="B84" t="n">
-        <v>93.5348</v>
+        <v>48.5302</v>
       </c>
       <c r="C84" t="n">
         <v>0.02075</v>
       </c>
       <c r="D84" t="n">
-        <v>1.336211428571429</v>
+        <v>0.6932885714285715</v>
       </c>
     </row>
     <row r="85">
@@ -7689,13 +7605,13 @@
         <v>1.68</v>
       </c>
       <c r="B85" t="n">
-        <v>93.4371</v>
+        <v>48.4743</v>
       </c>
       <c r="C85" t="n">
         <v>0.021</v>
       </c>
       <c r="D85" t="n">
-        <v>1.334815714285714</v>
+        <v>0.6924899999999999</v>
       </c>
     </row>
     <row r="86">
@@ -7703,13 +7619,13 @@
         <v>1.7</v>
       </c>
       <c r="B86" t="n">
-        <v>92.6104</v>
+        <v>46.686</v>
       </c>
       <c r="C86" t="n">
         <v>0.02125</v>
       </c>
       <c r="D86" t="n">
-        <v>1.323005714285714</v>
+        <v>0.6669428571428572</v>
       </c>
     </row>
     <row r="87">
@@ -7717,13 +7633,13 @@
         <v>1.72</v>
       </c>
       <c r="B87" t="n">
-        <v>91.75449999999999</v>
+        <v>46.5807</v>
       </c>
       <c r="C87" t="n">
         <v>0.0215</v>
       </c>
       <c r="D87" t="n">
-        <v>1.310778571428571</v>
+        <v>0.6654385714285714</v>
       </c>
     </row>
     <row r="88">
@@ -7731,13 +7647,13 @@
         <v>1.74</v>
       </c>
       <c r="B88" t="n">
-        <v>91.6053</v>
+        <v>46.4729</v>
       </c>
       <c r="C88" t="n">
         <v>0.02175</v>
       </c>
       <c r="D88" t="n">
-        <v>1.308647142857143</v>
+        <v>0.6638985714285714</v>
       </c>
     </row>
     <row r="89">
@@ -7745,13 +7661,13 @@
         <v>1.76</v>
       </c>
       <c r="B89" t="n">
-        <v>91.9483</v>
+        <v>46.5614</v>
       </c>
       <c r="C89" t="n">
         <v>0.022</v>
       </c>
       <c r="D89" t="n">
-        <v>1.313547142857143</v>
+        <v>0.6651628571428572</v>
       </c>
     </row>
     <row r="90">
@@ -7759,13 +7675,13 @@
         <v>1.78</v>
       </c>
       <c r="B90" t="n">
-        <v>92.1317</v>
+        <v>46.3412</v>
       </c>
       <c r="C90" t="n">
         <v>0.02225</v>
       </c>
       <c r="D90" t="n">
-        <v>1.316167142857143</v>
+        <v>0.6620171428571429</v>
       </c>
     </row>
     <row r="91">
@@ -7773,13 +7689,13 @@
         <v>1.8</v>
       </c>
       <c r="B91" t="n">
-        <v>92.0172</v>
+        <v>46.6651</v>
       </c>
       <c r="C91" t="n">
         <v>0.0225</v>
       </c>
       <c r="D91" t="n">
-        <v>1.314531428571429</v>
+        <v>0.6666442857142858</v>
       </c>
     </row>
     <row r="92">
@@ -7787,13 +7703,13 @@
         <v>1.82</v>
       </c>
       <c r="B92" t="n">
-        <v>90.5324</v>
+        <v>46.4003</v>
       </c>
       <c r="C92" t="n">
         <v>0.02275</v>
       </c>
       <c r="D92" t="n">
-        <v>1.29332</v>
+        <v>0.6628614285714286</v>
       </c>
     </row>
     <row r="93">
@@ -7801,13 +7717,13 @@
         <v>1.84</v>
       </c>
       <c r="B93" t="n">
-        <v>84.48999999999999</v>
+        <v>46.3732</v>
       </c>
       <c r="C93" t="n">
         <v>0.023</v>
       </c>
       <c r="D93" t="n">
-        <v>1.207</v>
+        <v>0.6624742857142857</v>
       </c>
     </row>
     <row r="94">
@@ -7815,13 +7731,13 @@
         <v>1.86</v>
       </c>
       <c r="B94" t="n">
-        <v>73.5252</v>
+        <v>45.8457</v>
       </c>
       <c r="C94" t="n">
         <v>0.02325</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05036</v>
+        <v>0.6549385714285715</v>
       </c>
     </row>
     <row r="95">
@@ -7829,13 +7745,13 @@
         <v>1.88</v>
       </c>
       <c r="B95" t="n">
-        <v>58.2428</v>
+        <v>45.5621</v>
       </c>
       <c r="C95" t="n">
         <v>0.0235</v>
       </c>
       <c r="D95" t="n">
-        <v>0.83204</v>
+        <v>0.6508871428571429</v>
       </c>
     </row>
     <row r="96">
@@ -7843,13 +7759,13 @@
         <v>1.9</v>
       </c>
       <c r="B96" t="n">
-        <v>47.6575</v>
+        <v>45.5944</v>
       </c>
       <c r="C96" t="n">
         <v>0.02375</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6808214285714286</v>
+        <v>0.6513485714285714</v>
       </c>
     </row>
     <row r="97">
@@ -7857,13 +7773,13 @@
         <v>1.92</v>
       </c>
       <c r="B97" t="n">
-        <v>43.7399</v>
+        <v>45.7568</v>
       </c>
       <c r="C97" t="n">
         <v>0.024</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6248557142857143</v>
+        <v>0.6536685714285714</v>
       </c>
     </row>
     <row r="98">
@@ -7871,13 +7787,13 @@
         <v>1.94</v>
       </c>
       <c r="B98" t="n">
-        <v>40.4435</v>
+        <v>45.9466</v>
       </c>
       <c r="C98" t="n">
         <v>0.02425</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5777642857142857</v>
+        <v>0.65638</v>
       </c>
     </row>
     <row r="99">
@@ -7885,13 +7801,13 @@
         <v>1.96</v>
       </c>
       <c r="B99" t="n">
-        <v>38.8187</v>
+        <v>45.6703</v>
       </c>
       <c r="C99" t="n">
         <v>0.0245</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5545528571428572</v>
+        <v>0.6524328571428571</v>
       </c>
     </row>
     <row r="100">
@@ -7899,13 +7815,13 @@
         <v>1.98</v>
       </c>
       <c r="B100" t="n">
-        <v>37.3807</v>
+        <v>45.7183</v>
       </c>
       <c r="C100" t="n">
         <v>0.02475</v>
       </c>
       <c r="D100" t="n">
-        <v>0.53401</v>
+        <v>0.6531185714285714</v>
       </c>
     </row>
     <row r="101">
@@ -7913,13 +7829,13 @@
         <v>1.99</v>
       </c>
       <c r="B101" t="n">
-        <v>36.907</v>
+        <v>45.7405</v>
       </c>
       <c r="C101" t="n">
         <v>0.024875</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5272428571428571</v>
+        <v>0.6534357142857142</v>
       </c>
     </row>
     <row r="102">
@@ -7927,13 +7843,13 @@
         <v>1.995</v>
       </c>
       <c r="B102" t="n">
-        <v>36.4852</v>
+        <v>45.6374</v>
       </c>
       <c r="C102" t="n">
         <v>0.0249375</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5212171428571428</v>
+        <v>0.6519628571428572</v>
       </c>
     </row>
     <row r="103">
@@ -7941,13 +7857,13 @@
         <v>1.997</v>
       </c>
       <c r="B103" t="n">
-        <v>36.0422</v>
+        <v>45.5665</v>
       </c>
       <c r="C103" t="n">
         <v>0.0249625</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5148885714285715</v>
+        <v>0.6509499999999999</v>
       </c>
     </row>
     <row r="104">
@@ -7955,13 +7871,13 @@
         <v>1.9985</v>
       </c>
       <c r="B104" t="n">
-        <v>35.1003</v>
+        <v>45.3107</v>
       </c>
       <c r="C104" t="n">
         <v>0.02498125</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5014328571428571</v>
+        <v>0.6472957142857142</v>
       </c>
     </row>
     <row r="105">
@@ -7969,13 +7885,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>34.4212</v>
+        <v>45.2478</v>
       </c>
       <c r="C105" t="n">
         <v>0.025</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4917314285714285</v>
+        <v>0.6463971428571428</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8021,7 +7937,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>7\kasa=1.3\thickness=2.0\7_kasa2.3_th2.0.csv</t>
+          <t>7\kasa=1.3\thickness=2.0\7_kasa1.3_th2.0.csv</t>
         </is>
       </c>
     </row>
@@ -8030,13 +7946,13 @@
         <v>0.02</v>
       </c>
       <c r="B2" t="n">
-        <v>53.51</v>
+        <v>62.0877</v>
       </c>
       <c r="C2" t="n">
         <v>0.00025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7644285714285713</v>
+        <v>0.8869671428571428</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -8044,7 +7960,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36.32128571428571</v>
+        <v>37.16171428571429</v>
       </c>
     </row>
     <row r="3">
@@ -8052,13 +7968,13 @@
         <v>0.04</v>
       </c>
       <c r="B3" t="n">
-        <v>107.02</v>
+        <v>124.175</v>
       </c>
       <c r="C3" t="n">
         <v>0.0005</v>
       </c>
       <c r="D3" t="n">
-        <v>1.528857142857143</v>
+        <v>1.773928571428571</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -8066,7 +7982,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3057.498181818181</v>
+        <v>3547.873523809523</v>
       </c>
     </row>
     <row r="4">
@@ -8074,13 +7990,13 @@
         <v>0.06</v>
       </c>
       <c r="B4" t="n">
-        <v>160.53</v>
+        <v>186.263</v>
       </c>
       <c r="C4" t="n">
         <v>0.00075</v>
       </c>
       <c r="D4" t="n">
-        <v>2.293285714285714</v>
+        <v>2.6609</v>
       </c>
     </row>
     <row r="5">
@@ -8088,13 +8004,13 @@
         <v>0.08</v>
       </c>
       <c r="B5" t="n">
-        <v>214.04</v>
+        <v>248.351</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
       </c>
       <c r="D5" t="n">
-        <v>3.057714285714285</v>
+        <v>3.547871428571428</v>
       </c>
     </row>
     <row r="6">
@@ -8102,13 +8018,13 @@
         <v>0.1</v>
       </c>
       <c r="B6" t="n">
-        <v>267.55</v>
+        <v>310.439</v>
       </c>
       <c r="C6" t="n">
         <v>0.00125</v>
       </c>
       <c r="D6" t="n">
-        <v>3.822142857142858</v>
+        <v>4.434842857142858</v>
       </c>
     </row>
     <row r="7">
@@ -8116,13 +8032,13 @@
         <v>0.12</v>
       </c>
       <c r="B7" t="n">
-        <v>321.06</v>
+        <v>372.526</v>
       </c>
       <c r="C7" t="n">
         <v>0.0015</v>
       </c>
       <c r="D7" t="n">
-        <v>4.586571428571428</v>
+        <v>5.321800000000001</v>
       </c>
     </row>
     <row r="8">
@@ -8130,13 +8046,13 @@
         <v>0.14</v>
       </c>
       <c r="B8" t="n">
-        <v>374.57</v>
+        <v>434.614</v>
       </c>
       <c r="C8" t="n">
         <v>0.00175</v>
       </c>
       <c r="D8" t="n">
-        <v>5.351</v>
+        <v>6.208771428571429</v>
       </c>
     </row>
     <row r="9">
@@ -8144,13 +8060,13 @@
         <v>0.16</v>
       </c>
       <c r="B9" t="n">
-        <v>428.077</v>
+        <v>496.702</v>
       </c>
       <c r="C9" t="n">
         <v>0.002</v>
       </c>
       <c r="D9" t="n">
-        <v>6.115385714285714</v>
+        <v>7.095742857142857</v>
       </c>
     </row>
     <row r="10">
@@ -8158,13 +8074,13 @@
         <v>0.18</v>
       </c>
       <c r="B10" t="n">
-        <v>481.575</v>
+        <v>558.79</v>
       </c>
       <c r="C10" t="n">
         <v>0.00225</v>
       </c>
       <c r="D10" t="n">
-        <v>6.879642857142857</v>
+        <v>7.982714285714285</v>
       </c>
     </row>
     <row r="11">
@@ -8172,13 +8088,13 @@
         <v>0.2</v>
       </c>
       <c r="B11" t="n">
-        <v>535.044</v>
+        <v>620.877</v>
       </c>
       <c r="C11" t="n">
         <v>0.0025</v>
       </c>
       <c r="D11" t="n">
-        <v>7.643485714285714</v>
+        <v>8.869671428571428</v>
       </c>
     </row>
     <row r="12">
@@ -8186,13 +8102,13 @@
         <v>0.22</v>
       </c>
       <c r="B12" t="n">
-        <v>588.442</v>
+        <v>682.965</v>
       </c>
       <c r="C12" t="n">
         <v>0.00275</v>
       </c>
       <c r="D12" t="n">
-        <v>8.406314285714286</v>
+        <v>9.756642857142857</v>
       </c>
     </row>
     <row r="13">
@@ -8200,13 +8116,13 @@
         <v>0.24</v>
       </c>
       <c r="B13" t="n">
-        <v>641.847</v>
+        <v>745.043</v>
       </c>
       <c r="C13" t="n">
         <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>9.169242857142857</v>
+        <v>10.64347142857143</v>
       </c>
     </row>
     <row r="14">
@@ -8214,13 +8130,13 @@
         <v>0.26</v>
       </c>
       <c r="B14" t="n">
-        <v>695.087</v>
+        <v>807.025</v>
       </c>
       <c r="C14" t="n">
         <v>0.00325</v>
       </c>
       <c r="D14" t="n">
-        <v>9.929814285714286</v>
+        <v>11.52892857142857</v>
       </c>
     </row>
     <row r="15">
@@ -8228,13 +8144,13 @@
         <v>0.28</v>
       </c>
       <c r="B15" t="n">
-        <v>748.194</v>
+        <v>868.749</v>
       </c>
       <c r="C15" t="n">
         <v>0.003500000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>10.68848571428571</v>
+        <v>12.4107</v>
       </c>
     </row>
     <row r="16">
@@ -8242,13 +8158,13 @@
         <v>0.3</v>
       </c>
       <c r="B16" t="n">
-        <v>801.474</v>
+        <v>929.849</v>
       </c>
       <c r="C16" t="n">
         <v>0.003749999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>11.44962857142857</v>
+        <v>13.28355714285714</v>
       </c>
     </row>
     <row r="17">
@@ -8256,13 +8172,13 @@
         <v>0.32</v>
       </c>
       <c r="B17" t="n">
-        <v>854.8</v>
+        <v>991.207</v>
       </c>
       <c r="C17" t="n">
         <v>0.004</v>
       </c>
       <c r="D17" t="n">
-        <v>12.21142857142857</v>
+        <v>14.1601</v>
       </c>
     </row>
     <row r="18">
@@ -8270,13 +8186,13 @@
         <v>0.34</v>
       </c>
       <c r="B18" t="n">
-        <v>908.032</v>
+        <v>1052.52</v>
       </c>
       <c r="C18" t="n">
         <v>0.00425</v>
       </c>
       <c r="D18" t="n">
-        <v>12.97188571428572</v>
+        <v>15.036</v>
       </c>
     </row>
     <row r="19">
@@ -8284,13 +8200,13 @@
         <v>0.36</v>
       </c>
       <c r="B19" t="n">
-        <v>961.289</v>
+        <v>1114.11</v>
       </c>
       <c r="C19" t="n">
         <v>0.0045</v>
       </c>
       <c r="D19" t="n">
-        <v>13.7327</v>
+        <v>15.91585714285714</v>
       </c>
     </row>
     <row r="20">
@@ -8298,13 +8214,13 @@
         <v>0.38</v>
       </c>
       <c r="B20" t="n">
-        <v>1014.48</v>
+        <v>1175.46</v>
       </c>
       <c r="C20" t="n">
         <v>0.00475</v>
       </c>
       <c r="D20" t="n">
-        <v>14.49257142857143</v>
+        <v>16.79228571428571</v>
       </c>
     </row>
     <row r="21">
@@ -8312,13 +8228,13 @@
         <v>0.4</v>
       </c>
       <c r="B21" t="n">
-        <v>1067.69</v>
+        <v>1237.11</v>
       </c>
       <c r="C21" t="n">
         <v>0.005</v>
       </c>
       <c r="D21" t="n">
-        <v>15.25271428571429</v>
+        <v>17.673</v>
       </c>
     </row>
     <row r="22">
@@ -8326,13 +8242,13 @@
         <v>0.42</v>
       </c>
       <c r="B22" t="n">
-        <v>1120.81</v>
+        <v>1298.63</v>
       </c>
       <c r="C22" t="n">
         <v>0.00525</v>
       </c>
       <c r="D22" t="n">
-        <v>16.01157142857143</v>
+        <v>18.55185714285714</v>
       </c>
     </row>
     <row r="23">
@@ -8340,13 +8256,13 @@
         <v>0.44</v>
       </c>
       <c r="B23" t="n">
-        <v>1174.06</v>
+        <v>1360</v>
       </c>
       <c r="C23" t="n">
         <v>0.0055</v>
       </c>
       <c r="D23" t="n">
-        <v>16.77228571428572</v>
+        <v>19.42857142857143</v>
       </c>
     </row>
     <row r="24">
@@ -8354,13 +8270,13 @@
         <v>0.46</v>
       </c>
       <c r="B24" t="n">
-        <v>1227.18</v>
+        <v>1421.62</v>
       </c>
       <c r="C24" t="n">
         <v>0.00575</v>
       </c>
       <c r="D24" t="n">
-        <v>17.53114285714286</v>
+        <v>20.30885714285714</v>
       </c>
     </row>
     <row r="25">
@@ -8368,13 +8284,13 @@
         <v>0.48</v>
       </c>
       <c r="B25" t="n">
-        <v>1280.39</v>
+        <v>1483.17</v>
       </c>
       <c r="C25" t="n">
         <v>0.006</v>
       </c>
       <c r="D25" t="n">
-        <v>18.29128571428572</v>
+        <v>21.18814285714286</v>
       </c>
     </row>
     <row r="26">
@@ -8382,13 +8298,13 @@
         <v>0.5</v>
       </c>
       <c r="B26" t="n">
-        <v>1333.61</v>
+        <v>1544.47</v>
       </c>
       <c r="C26" t="n">
         <v>0.00625</v>
       </c>
       <c r="D26" t="n">
-        <v>19.05157142857143</v>
+        <v>22.06385714285714</v>
       </c>
     </row>
     <row r="27">
@@ -8396,13 +8312,13 @@
         <v>0.52</v>
       </c>
       <c r="B27" t="n">
-        <v>1386.79</v>
+        <v>1605.59</v>
       </c>
       <c r="C27" t="n">
         <v>0.006500000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>19.81128571428571</v>
+        <v>22.937</v>
       </c>
     </row>
     <row r="28">
@@ -8410,13 +8326,13 @@
         <v>0.54</v>
       </c>
       <c r="B28" t="n">
-        <v>1440.01</v>
+        <v>1666.62</v>
       </c>
       <c r="C28" t="n">
         <v>0.00675</v>
       </c>
       <c r="D28" t="n">
-        <v>20.57157142857143</v>
+        <v>23.80885714285714</v>
       </c>
     </row>
     <row r="29">
@@ -8424,13 +8340,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>1493.11</v>
+        <v>1727.65</v>
       </c>
       <c r="C29" t="n">
         <v>0.007000000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>21.33014285714286</v>
+        <v>24.68071428571429</v>
       </c>
     </row>
     <row r="30">
@@ -8438,13 +8354,13 @@
         <v>0.58</v>
       </c>
       <c r="B30" t="n">
-        <v>1546.24</v>
+        <v>1788.82</v>
       </c>
       <c r="C30" t="n">
         <v>0.00725</v>
       </c>
       <c r="D30" t="n">
-        <v>22.08914285714286</v>
+        <v>25.55457142857143</v>
       </c>
     </row>
     <row r="31">
@@ -8452,13 +8368,13 @@
         <v>0.6</v>
       </c>
       <c r="B31" t="n">
-        <v>1599.21</v>
+        <v>1850.02</v>
       </c>
       <c r="C31" t="n">
         <v>0.007499999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>22.84585714285714</v>
+        <v>26.42885714285714</v>
       </c>
     </row>
     <row r="32">
@@ -8466,13 +8382,13 @@
         <v>0.62</v>
       </c>
       <c r="B32" t="n">
-        <v>1652.06</v>
+        <v>1910.82</v>
       </c>
       <c r="C32" t="n">
         <v>0.00775</v>
       </c>
       <c r="D32" t="n">
-        <v>23.60085714285714</v>
+        <v>27.29742857142857</v>
       </c>
     </row>
     <row r="33">
@@ -8480,13 +8396,13 @@
         <v>0.64</v>
       </c>
       <c r="B33" t="n">
-        <v>1704.7</v>
+        <v>1971.92</v>
       </c>
       <c r="C33" t="n">
         <v>0.008</v>
       </c>
       <c r="D33" t="n">
-        <v>24.35285714285714</v>
+        <v>28.17028571428571</v>
       </c>
     </row>
     <row r="34">
@@ -8494,13 +8410,13 @@
         <v>0.66</v>
       </c>
       <c r="B34" t="n">
-        <v>1757.48</v>
+        <v>2032.83</v>
       </c>
       <c r="C34" t="n">
         <v>0.00825</v>
       </c>
       <c r="D34" t="n">
-        <v>25.10685714285714</v>
+        <v>29.04042857142857</v>
       </c>
     </row>
     <row r="35">
@@ -8508,13 +8424,13 @@
         <v>0.68</v>
       </c>
       <c r="B35" t="n">
-        <v>1810.14</v>
+        <v>2093.73</v>
       </c>
       <c r="C35" t="n">
         <v>0.008500000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>25.85914285714286</v>
+        <v>29.91042857142857</v>
       </c>
     </row>
     <row r="36">
@@ -8522,13 +8438,13 @@
         <v>0.7</v>
       </c>
       <c r="B36" t="n">
-        <v>1862.66</v>
+        <v>2154.68</v>
       </c>
       <c r="C36" t="n">
         <v>0.008749999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>26.60942857142857</v>
+        <v>30.78114285714285</v>
       </c>
     </row>
     <row r="37">
@@ -8536,13 +8452,13 @@
         <v>0.72</v>
       </c>
       <c r="B37" t="n">
-        <v>1915.07</v>
+        <v>2215.4</v>
       </c>
       <c r="C37" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>27.35814285714286</v>
+        <v>31.64857142857143</v>
       </c>
     </row>
     <row r="38">
@@ -8550,13 +8466,13 @@
         <v>0.74</v>
       </c>
       <c r="B38" t="n">
-        <v>1967.44</v>
+        <v>2276.13</v>
       </c>
       <c r="C38" t="n">
         <v>0.00925</v>
       </c>
       <c r="D38" t="n">
-        <v>28.10628571428571</v>
+        <v>32.51614285714286</v>
       </c>
     </row>
     <row r="39">
@@ -8564,13 +8480,13 @@
         <v>0.76</v>
       </c>
       <c r="B39" t="n">
-        <v>2019.76</v>
+        <v>2336.26</v>
       </c>
       <c r="C39" t="n">
         <v>0.0095</v>
       </c>
       <c r="D39" t="n">
-        <v>28.85371428571429</v>
+        <v>33.37514285714286</v>
       </c>
     </row>
     <row r="40">
@@ -8578,13 +8494,13 @@
         <v>0.78</v>
       </c>
       <c r="B40" t="n">
-        <v>2072.32</v>
+        <v>2396.59</v>
       </c>
       <c r="C40" t="n">
         <v>0.009750000000000002</v>
       </c>
       <c r="D40" t="n">
-        <v>29.60457142857143</v>
+        <v>34.237</v>
       </c>
     </row>
     <row r="41">
@@ -8592,13 +8508,13 @@
         <v>0.8</v>
       </c>
       <c r="B41" t="n">
-        <v>2124.48</v>
+        <v>2457.29</v>
       </c>
       <c r="C41" t="n">
         <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>30.34971428571428</v>
+        <v>35.10414285714285</v>
       </c>
     </row>
     <row r="42">
@@ -8606,13 +8522,13 @@
         <v>0.82</v>
       </c>
       <c r="B42" t="n">
-        <v>2176.58</v>
+        <v>2516.2</v>
       </c>
       <c r="C42" t="n">
         <v>0.01025</v>
       </c>
       <c r="D42" t="n">
-        <v>31.094</v>
+        <v>35.94571428571428</v>
       </c>
     </row>
     <row r="43">
@@ -8620,13 +8536,13 @@
         <v>0.84</v>
       </c>
       <c r="B43" t="n">
-        <v>2228.86</v>
+        <v>2568.94</v>
       </c>
       <c r="C43" t="n">
         <v>0.0105</v>
       </c>
       <c r="D43" t="n">
-        <v>31.84085714285715</v>
+        <v>36.69914285714286</v>
       </c>
     </row>
     <row r="44">
@@ -8634,13 +8550,13 @@
         <v>0.86</v>
       </c>
       <c r="B44" t="n">
-        <v>2281.01</v>
+        <v>2601.32</v>
       </c>
       <c r="C44" t="n">
         <v>0.01075</v>
       </c>
       <c r="D44" t="n">
-        <v>32.58585714285714</v>
+        <v>37.16171428571429</v>
       </c>
     </row>
     <row r="45">
@@ -8648,13 +8564,13 @@
         <v>0.88</v>
       </c>
       <c r="B45" t="n">
-        <v>2332.68</v>
+        <v>2597.52</v>
       </c>
       <c r="C45" t="n">
         <v>0.011</v>
       </c>
       <c r="D45" t="n">
-        <v>33.324</v>
+        <v>37.10742857142857</v>
       </c>
     </row>
     <row r="46">
@@ -8662,13 +8578,13 @@
         <v>0.9</v>
       </c>
       <c r="B46" t="n">
-        <v>2384.7</v>
+        <v>2551.75</v>
       </c>
       <c r="C46" t="n">
         <v>0.01125</v>
       </c>
       <c r="D46" t="n">
-        <v>34.06714285714285</v>
+        <v>36.45357142857143</v>
       </c>
     </row>
     <row r="47">
@@ -8676,13 +8592,13 @@
         <v>0.92</v>
       </c>
       <c r="B47" t="n">
-        <v>2436.07</v>
+        <v>2473.95</v>
       </c>
       <c r="C47" t="n">
         <v>0.0115</v>
       </c>
       <c r="D47" t="n">
-        <v>34.801</v>
+        <v>35.34214285714285</v>
       </c>
     </row>
     <row r="48">
@@ -8690,13 +8606,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>2485.14</v>
+        <v>2278.64</v>
       </c>
       <c r="C48" t="n">
         <v>0.01175</v>
       </c>
       <c r="D48" t="n">
-        <v>35.502</v>
+        <v>32.552</v>
       </c>
     </row>
     <row r="49">
@@ -8704,13 +8620,13 @@
         <v>0.96</v>
       </c>
       <c r="B49" t="n">
-        <v>2525.44</v>
+        <v>1900.75</v>
       </c>
       <c r="C49" t="n">
         <v>0.012</v>
       </c>
       <c r="D49" t="n">
-        <v>36.07771428571429</v>
+        <v>27.15357142857143</v>
       </c>
     </row>
     <row r="50">
@@ -8718,13 +8634,13 @@
         <v>0.98</v>
       </c>
       <c r="B50" t="n">
-        <v>2542.49</v>
+        <v>1643.02</v>
       </c>
       <c r="C50" t="n">
         <v>0.01225</v>
       </c>
       <c r="D50" t="n">
-        <v>36.32128571428571</v>
+        <v>23.47171428571428</v>
       </c>
     </row>
     <row r="51">
@@ -8732,13 +8648,13 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2536.67</v>
+        <v>1331.68</v>
       </c>
       <c r="C51" t="n">
         <v>0.0125</v>
       </c>
       <c r="D51" t="n">
-        <v>36.23814285714286</v>
+        <v>19.024</v>
       </c>
     </row>
     <row r="52">
@@ -8746,13 +8662,13 @@
         <v>1.02</v>
       </c>
       <c r="B52" t="n">
-        <v>2501.01</v>
+        <v>1163.88</v>
       </c>
       <c r="C52" t="n">
         <v>0.01275</v>
       </c>
       <c r="D52" t="n">
-        <v>35.72871428571429</v>
+        <v>16.62685714285714</v>
       </c>
     </row>
     <row r="53">
@@ -8760,13 +8676,13 @@
         <v>1.04</v>
       </c>
       <c r="B53" t="n">
-        <v>2430.09</v>
+        <v>1037.26</v>
       </c>
       <c r="C53" t="n">
         <v>0.013</v>
       </c>
       <c r="D53" t="n">
-        <v>34.71557142857143</v>
+        <v>14.818</v>
       </c>
     </row>
     <row r="54">
@@ -8774,13 +8690,13 @@
         <v>1.06</v>
       </c>
       <c r="B54" t="n">
-        <v>2181.74</v>
+        <v>969.95</v>
       </c>
       <c r="C54" t="n">
         <v>0.01325</v>
       </c>
       <c r="D54" t="n">
-        <v>31.16771428571428</v>
+        <v>13.85642857142857</v>
       </c>
     </row>
     <row r="55">
@@ -8788,13 +8704,13 @@
         <v>1.08</v>
       </c>
       <c r="B55" t="n">
-        <v>1742.11</v>
+        <v>950.547</v>
       </c>
       <c r="C55" t="n">
         <v>0.0135</v>
       </c>
       <c r="D55" t="n">
-        <v>24.88728571428571</v>
+        <v>13.57924285714286</v>
       </c>
     </row>
     <row r="56">
@@ -8802,13 +8718,13 @@
         <v>1.1</v>
       </c>
       <c r="B56" t="n">
-        <v>1561.52</v>
+        <v>909.213</v>
       </c>
       <c r="C56" t="n">
         <v>0.01375</v>
       </c>
       <c r="D56" t="n">
-        <v>22.30742857142857</v>
+        <v>12.98875714285714</v>
       </c>
     </row>
     <row r="57">
@@ -8816,13 +8732,13 @@
         <v>1.12</v>
       </c>
       <c r="B57" t="n">
-        <v>1359.49</v>
+        <v>817.861</v>
       </c>
       <c r="C57" t="n">
         <v>0.014</v>
       </c>
       <c r="D57" t="n">
-        <v>19.42128571428572</v>
+        <v>11.68372857142857</v>
       </c>
     </row>
     <row r="58">
@@ -8830,13 +8746,13 @@
         <v>1.14</v>
       </c>
       <c r="B58" t="n">
-        <v>1154.94</v>
+        <v>673.144</v>
       </c>
       <c r="C58" t="n">
         <v>0.01425</v>
       </c>
       <c r="D58" t="n">
-        <v>16.49914285714286</v>
+        <v>9.616342857142858</v>
       </c>
     </row>
     <row r="59">
@@ -8844,13 +8760,13 @@
         <v>1.16</v>
       </c>
       <c r="B59" t="n">
-        <v>1029.63</v>
+        <v>514.992</v>
       </c>
       <c r="C59" t="n">
         <v>0.0145</v>
       </c>
       <c r="D59" t="n">
-        <v>14.709</v>
+        <v>7.357028571428571</v>
       </c>
     </row>
     <row r="60">
@@ -8858,13 +8774,13 @@
         <v>1.18</v>
       </c>
       <c r="B60" t="n">
-        <v>879.798</v>
+        <v>482.647</v>
       </c>
       <c r="C60" t="n">
         <v>0.01475</v>
       </c>
       <c r="D60" t="n">
-        <v>12.56854285714286</v>
+        <v>6.894957142857143</v>
       </c>
     </row>
     <row r="61">
@@ -8872,13 +8788,13 @@
         <v>1.2</v>
       </c>
       <c r="B61" t="n">
-        <v>693.681</v>
+        <v>432.696</v>
       </c>
       <c r="C61" t="n">
         <v>0.015</v>
       </c>
       <c r="D61" t="n">
-        <v>9.909728571428571</v>
+        <v>6.181371428571429</v>
       </c>
     </row>
     <row r="62">
@@ -8886,13 +8802,13 @@
         <v>1.22</v>
       </c>
       <c r="B62" t="n">
-        <v>542.357</v>
+        <v>362.392</v>
       </c>
       <c r="C62" t="n">
         <v>0.01525</v>
       </c>
       <c r="D62" t="n">
-        <v>7.747957142857143</v>
+        <v>5.177028571428571</v>
       </c>
     </row>
     <row r="63">
@@ -8900,13 +8816,13 @@
         <v>1.24</v>
       </c>
       <c r="B63" t="n">
-        <v>443.004</v>
+        <v>291.031</v>
       </c>
       <c r="C63" t="n">
         <v>0.0155</v>
       </c>
       <c r="D63" t="n">
-        <v>6.328628571428571</v>
+        <v>4.157585714285714</v>
       </c>
     </row>
     <row r="64">
@@ -8914,13 +8830,13 @@
         <v>1.26</v>
       </c>
       <c r="B64" t="n">
-        <v>351.031</v>
+        <v>241.686</v>
       </c>
       <c r="C64" t="n">
         <v>0.01575</v>
       </c>
       <c r="D64" t="n">
-        <v>5.014728571428572</v>
+        <v>3.452657142857143</v>
       </c>
     </row>
     <row r="65">
@@ -8928,13 +8844,13 @@
         <v>1.28</v>
       </c>
       <c r="B65" t="n">
-        <v>196.745</v>
+        <v>211.906</v>
       </c>
       <c r="C65" t="n">
         <v>0.016</v>
       </c>
       <c r="D65" t="n">
-        <v>2.810642857142857</v>
+        <v>3.027228571428572</v>
       </c>
     </row>
     <row r="66">
@@ -8942,13 +8858,13 @@
         <v>1.3</v>
       </c>
       <c r="B66" t="n">
-        <v>137.557</v>
+        <v>189.483</v>
       </c>
       <c r="C66" t="n">
         <v>0.01625</v>
       </c>
       <c r="D66" t="n">
-        <v>1.9651</v>
+        <v>2.7069</v>
       </c>
     </row>
     <row r="67">
@@ -8956,13 +8872,13 @@
         <v>1.32</v>
       </c>
       <c r="B67" t="n">
-        <v>110.336</v>
+        <v>177.318</v>
       </c>
       <c r="C67" t="n">
         <v>0.0165</v>
       </c>
       <c r="D67" t="n">
-        <v>1.576228571428571</v>
+        <v>2.533114285714286</v>
       </c>
     </row>
     <row r="68">
@@ -8970,13 +8886,13 @@
         <v>1.34</v>
       </c>
       <c r="B68" t="n">
-        <v>102.943</v>
+        <v>147.851</v>
       </c>
       <c r="C68" t="n">
         <v>0.01675</v>
       </c>
       <c r="D68" t="n">
-        <v>1.470614285714286</v>
+        <v>2.112157142857143</v>
       </c>
     </row>
     <row r="69">
@@ -8984,13 +8900,13 @@
         <v>1.36</v>
       </c>
       <c r="B69" t="n">
-        <v>99.5149</v>
+        <v>113.265</v>
       </c>
       <c r="C69" t="n">
         <v>0.017</v>
       </c>
       <c r="D69" t="n">
-        <v>1.421641428571429</v>
+        <v>1.618071428571429</v>
       </c>
     </row>
     <row r="70">
@@ -8998,13 +8914,13 @@
         <v>1.38</v>
       </c>
       <c r="B70" t="n">
-        <v>95.7654</v>
+        <v>100.936</v>
       </c>
       <c r="C70" t="n">
         <v>0.01725</v>
       </c>
       <c r="D70" t="n">
-        <v>1.368077142857143</v>
+        <v>1.441942857142857</v>
       </c>
     </row>
     <row r="71">
@@ -9012,13 +8928,13 @@
         <v>1.4</v>
       </c>
       <c r="B71" t="n">
-        <v>93.06100000000001</v>
+        <v>85.0363</v>
       </c>
       <c r="C71" t="n">
         <v>0.0175</v>
       </c>
       <c r="D71" t="n">
-        <v>1.329442857142857</v>
+        <v>1.214804285714286</v>
       </c>
     </row>
     <row r="72">
@@ -9026,13 +8942,13 @@
         <v>1.42</v>
       </c>
       <c r="B72" t="n">
-        <v>90.6729</v>
+        <v>78.39060000000001</v>
       </c>
       <c r="C72" t="n">
         <v>0.01775</v>
       </c>
       <c r="D72" t="n">
-        <v>1.295327142857143</v>
+        <v>1.119865714285714</v>
       </c>
     </row>
     <row r="73">
@@ -9040,13 +8956,13 @@
         <v>1.44</v>
       </c>
       <c r="B73" t="n">
-        <v>88.7919</v>
+        <v>74.77330000000001</v>
       </c>
       <c r="C73" t="n">
         <v>0.018</v>
       </c>
       <c r="D73" t="n">
-        <v>1.268455714285714</v>
+        <v>1.06819</v>
       </c>
     </row>
     <row r="74">
@@ -9054,13 +8970,13 @@
         <v>1.46</v>
       </c>
       <c r="B74" t="n">
-        <v>88.4072</v>
+        <v>74.065</v>
       </c>
       <c r="C74" t="n">
         <v>0.01825</v>
       </c>
       <c r="D74" t="n">
-        <v>1.26296</v>
+        <v>1.058071428571429</v>
       </c>
     </row>
     <row r="75">
@@ -9068,13 +8984,13 @@
         <v>1.48</v>
       </c>
       <c r="B75" t="n">
-        <v>88.3408</v>
+        <v>73.2059</v>
       </c>
       <c r="C75" t="n">
         <v>0.0185</v>
       </c>
       <c r="D75" t="n">
-        <v>1.262011428571429</v>
+        <v>1.045798571428571</v>
       </c>
     </row>
     <row r="76">
@@ -9082,13 +8998,13 @@
         <v>1.5</v>
       </c>
       <c r="B76" t="n">
-        <v>88.6876</v>
+        <v>72.4796</v>
       </c>
       <c r="C76" t="n">
         <v>0.01875</v>
       </c>
       <c r="D76" t="n">
-        <v>1.266965714285714</v>
+        <v>1.035422857142857</v>
       </c>
     </row>
     <row r="77">
@@ -9096,13 +9012,13 @@
         <v>1.52</v>
       </c>
       <c r="B77" t="n">
-        <v>89.3823</v>
+        <v>72.1159</v>
       </c>
       <c r="C77" t="n">
         <v>0.019</v>
       </c>
       <c r="D77" t="n">
-        <v>1.27689</v>
+        <v>1.030227142857143</v>
       </c>
     </row>
     <row r="78">
@@ -9110,13 +9026,13 @@
         <v>1.54</v>
       </c>
       <c r="B78" t="n">
-        <v>89.9931</v>
+        <v>72.45780000000001</v>
       </c>
       <c r="C78" t="n">
         <v>0.01925</v>
       </c>
       <c r="D78" t="n">
-        <v>1.285615714285714</v>
+        <v>1.035111428571429</v>
       </c>
     </row>
     <row r="79">
@@ -9124,13 +9040,13 @@
         <v>1.56</v>
       </c>
       <c r="B79" t="n">
-        <v>90.5793</v>
+        <v>72.7971</v>
       </c>
       <c r="C79" t="n">
         <v>0.0195</v>
       </c>
       <c r="D79" t="n">
-        <v>1.29399</v>
+        <v>1.039958571428572</v>
       </c>
     </row>
     <row r="80">
@@ -9138,13 +9054,13 @@
         <v>1.58</v>
       </c>
       <c r="B80" t="n">
-        <v>90.4117</v>
+        <v>72.194</v>
       </c>
       <c r="C80" t="n">
         <v>0.01975</v>
       </c>
       <c r="D80" t="n">
-        <v>1.291595714285714</v>
+        <v>1.031342857142857</v>
       </c>
     </row>
     <row r="81">
@@ -9152,13 +9068,13 @@
         <v>1.6</v>
       </c>
       <c r="B81" t="n">
-        <v>91.1948</v>
+        <v>72.1533</v>
       </c>
       <c r="C81" t="n">
         <v>0.02</v>
       </c>
       <c r="D81" t="n">
-        <v>1.302782857142857</v>
+        <v>1.030761428571429</v>
       </c>
     </row>
     <row r="82">
@@ -9166,13 +9082,13 @@
         <v>1.62</v>
       </c>
       <c r="B82" t="n">
-        <v>92.2403</v>
+        <v>72.2317</v>
       </c>
       <c r="C82" t="n">
         <v>0.02025</v>
       </c>
       <c r="D82" t="n">
-        <v>1.317718571428572</v>
+        <v>1.031881428571429</v>
       </c>
     </row>
     <row r="83">
@@ -9180,13 +9096,13 @@
         <v>1.64</v>
       </c>
       <c r="B83" t="n">
-        <v>93.02249999999999</v>
+        <v>72.17140000000001</v>
       </c>
       <c r="C83" t="n">
         <v>0.0205</v>
       </c>
       <c r="D83" t="n">
-        <v>1.328892857142857</v>
+        <v>1.03102</v>
       </c>
     </row>
     <row r="84">
@@ -9194,13 +9110,13 @@
         <v>1.66</v>
       </c>
       <c r="B84" t="n">
-        <v>93.5348</v>
+        <v>72.1771</v>
       </c>
       <c r="C84" t="n">
         <v>0.02075</v>
       </c>
       <c r="D84" t="n">
-        <v>1.336211428571429</v>
+        <v>1.031101428571429</v>
       </c>
     </row>
     <row r="85">
@@ -9208,13 +9124,13 @@
         <v>1.68</v>
       </c>
       <c r="B85" t="n">
-        <v>93.4371</v>
+        <v>72.3439</v>
       </c>
       <c r="C85" t="n">
         <v>0.021</v>
       </c>
       <c r="D85" t="n">
-        <v>1.334815714285714</v>
+        <v>1.033484285714286</v>
       </c>
     </row>
     <row r="86">
@@ -9222,13 +9138,13 @@
         <v>1.7</v>
       </c>
       <c r="B86" t="n">
-        <v>92.6104</v>
+        <v>72.5835</v>
       </c>
       <c r="C86" t="n">
         <v>0.02125</v>
       </c>
       <c r="D86" t="n">
-        <v>1.323005714285714</v>
+        <v>1.036907142857143</v>
       </c>
     </row>
     <row r="87">
@@ -9236,13 +9152,13 @@
         <v>1.72</v>
       </c>
       <c r="B87" t="n">
-        <v>91.75449999999999</v>
+        <v>72.63330000000001</v>
       </c>
       <c r="C87" t="n">
         <v>0.0215</v>
       </c>
       <c r="D87" t="n">
-        <v>1.310778571428571</v>
+        <v>1.037618571428572</v>
       </c>
     </row>
     <row r="88">
@@ -9250,13 +9166,13 @@
         <v>1.74</v>
       </c>
       <c r="B88" t="n">
-        <v>91.6053</v>
+        <v>72.18380000000001</v>
       </c>
       <c r="C88" t="n">
         <v>0.02175</v>
       </c>
       <c r="D88" t="n">
-        <v>1.308647142857143</v>
+        <v>1.031197142857143</v>
       </c>
     </row>
     <row r="89">
@@ -9264,13 +9180,13 @@
         <v>1.76</v>
       </c>
       <c r="B89" t="n">
-        <v>91.9483</v>
+        <v>71.7008</v>
       </c>
       <c r="C89" t="n">
         <v>0.022</v>
       </c>
       <c r="D89" t="n">
-        <v>1.313547142857143</v>
+        <v>1.024297142857143</v>
       </c>
     </row>
     <row r="90">
@@ -9278,13 +9194,13 @@
         <v>1.78</v>
       </c>
       <c r="B90" t="n">
-        <v>92.1317</v>
+        <v>71.5903</v>
       </c>
       <c r="C90" t="n">
         <v>0.02225</v>
       </c>
       <c r="D90" t="n">
-        <v>1.316167142857143</v>
+        <v>1.022718571428571</v>
       </c>
     </row>
     <row r="91">
@@ -9292,13 +9208,13 @@
         <v>1.8</v>
       </c>
       <c r="B91" t="n">
-        <v>92.0172</v>
+        <v>71.94</v>
       </c>
       <c r="C91" t="n">
         <v>0.0225</v>
       </c>
       <c r="D91" t="n">
-        <v>1.314531428571429</v>
+        <v>1.027714285714286</v>
       </c>
     </row>
     <row r="92">
@@ -9306,13 +9222,13 @@
         <v>1.82</v>
       </c>
       <c r="B92" t="n">
-        <v>90.5324</v>
+        <v>71.9884</v>
       </c>
       <c r="C92" t="n">
         <v>0.02275</v>
       </c>
       <c r="D92" t="n">
-        <v>1.29332</v>
+        <v>1.028405714285714</v>
       </c>
     </row>
     <row r="93">
@@ -9320,13 +9236,13 @@
         <v>1.84</v>
       </c>
       <c r="B93" t="n">
-        <v>84.48999999999999</v>
+        <v>71.7461</v>
       </c>
       <c r="C93" t="n">
         <v>0.023</v>
       </c>
       <c r="D93" t="n">
-        <v>1.207</v>
+        <v>1.024944285714286</v>
       </c>
     </row>
     <row r="94">
@@ -9334,13 +9250,13 @@
         <v>1.86</v>
       </c>
       <c r="B94" t="n">
-        <v>73.5252</v>
+        <v>72.1713</v>
       </c>
       <c r="C94" t="n">
         <v>0.02325</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05036</v>
+        <v>1.031018571428572</v>
       </c>
     </row>
     <row r="95">
@@ -9348,13 +9264,13 @@
         <v>1.88</v>
       </c>
       <c r="B95" t="n">
-        <v>58.2428</v>
+        <v>72.8857</v>
       </c>
       <c r="C95" t="n">
         <v>0.0235</v>
       </c>
       <c r="D95" t="n">
-        <v>0.83204</v>
+        <v>1.041224285714286</v>
       </c>
     </row>
     <row r="96">
@@ -9362,13 +9278,13 @@
         <v>1.9</v>
       </c>
       <c r="B96" t="n">
-        <v>47.6575</v>
+        <v>73.5299</v>
       </c>
       <c r="C96" t="n">
         <v>0.02375</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6808214285714286</v>
+        <v>1.050427142857143</v>
       </c>
     </row>
     <row r="97">
@@ -9376,13 +9292,13 @@
         <v>1.92</v>
       </c>
       <c r="B97" t="n">
-        <v>43.7399</v>
+        <v>73.5883</v>
       </c>
       <c r="C97" t="n">
         <v>0.024</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6248557142857143</v>
+        <v>1.051261428571429</v>
       </c>
     </row>
     <row r="98">
@@ -9390,13 +9306,13 @@
         <v>1.94</v>
       </c>
       <c r="B98" t="n">
-        <v>40.4435</v>
+        <v>73.19750000000001</v>
       </c>
       <c r="C98" t="n">
         <v>0.02425</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5777642857142857</v>
+        <v>1.045678571428571</v>
       </c>
     </row>
     <row r="99">
@@ -9404,13 +9320,13 @@
         <v>1.96</v>
       </c>
       <c r="B99" t="n">
-        <v>38.8187</v>
+        <v>73.31610000000001</v>
       </c>
       <c r="C99" t="n">
         <v>0.0245</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5545528571428572</v>
+        <v>1.047372857142857</v>
       </c>
     </row>
     <row r="100">
@@ -9418,83 +9334,27 @@
         <v>1.98</v>
       </c>
       <c r="B100" t="n">
-        <v>37.3807</v>
+        <v>73.7946</v>
       </c>
       <c r="C100" t="n">
         <v>0.02475</v>
       </c>
       <c r="D100" t="n">
-        <v>0.53401</v>
+        <v>1.054208571428571</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>36.907</v>
+        <v>72.5835</v>
       </c>
       <c r="C101" t="n">
-        <v>0.024875</v>
+        <v>0.025</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5272428571428571</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1.995</v>
-      </c>
-      <c r="B102" t="n">
-        <v>36.4852</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.0249375</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.5212171428571428</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1.997</v>
-      </c>
-      <c r="B103" t="n">
-        <v>36.0422</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.0249625</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.5148885714285715</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1.9985</v>
-      </c>
-      <c r="B104" t="n">
-        <v>35.1003</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.02498125</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.5014328571428571</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>2</v>
-      </c>
-      <c r="B105" t="n">
-        <v>34.4212</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.4917314285714285</v>
+        <v>1.036907142857143</v>
       </c>
     </row>
   </sheetData>
